--- a/species_profile/data_files/Species profile_SP.xlsx
+++ b/species_profile/data_files/Species profile_SP.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F1BCFF7-7A70-4179-94C3-B378EEF9B43E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B392F978-609C-442F-895B-FA65144EF41E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="210" yWindow="2745" windowWidth="15060" windowHeight="10275" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Concentration" sheetId="1" r:id="rId1"/>
@@ -468,33 +468,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A28" sqref="A20:A28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" t="s">
         <v>36</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" t="s">
         <v>34</v>
       </c>
-      <c r="D1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" t="s">
         <v>28</v>
-      </c>
-      <c r="F1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G1" t="s">
-        <v>38</v>
-      </c>
-      <c r="H1" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -502,25 +502,25 @@
         <v>0</v>
       </c>
       <c r="B2">
+        <v>3.6537999999999999</v>
+      </c>
+      <c r="C2">
+        <v>8.9122000000000003</v>
+      </c>
+      <c r="D2">
         <v>1.4862</v>
       </c>
-      <c r="C2">
+      <c r="E2">
+        <v>0.50409000000000004</v>
+      </c>
+      <c r="F2">
         <v>1.4986999999999999</v>
       </c>
-      <c r="D2">
-        <v>8.9122000000000003</v>
-      </c>
-      <c r="E2">
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
         <v>0.79527000000000003</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>3.6537999999999999</v>
-      </c>
-      <c r="H2">
-        <v>0.50409000000000004</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -528,25 +528,25 @@
         <v>1</v>
       </c>
       <c r="B3">
+        <v>6.3136999999999999</v>
+      </c>
+      <c r="C3">
+        <v>10.551</v>
+      </c>
+      <c r="D3">
         <v>1.8973</v>
       </c>
-      <c r="C3">
+      <c r="E3">
+        <v>0.41641</v>
+      </c>
+      <c r="F3">
         <v>2.3952</v>
       </c>
-      <c r="D3">
-        <v>10.551</v>
-      </c>
-      <c r="E3">
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
         <v>0.85995999999999995</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>6.3136999999999999</v>
-      </c>
-      <c r="H3">
-        <v>0.41641</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -554,25 +554,25 @@
         <v>2</v>
       </c>
       <c r="B4">
+        <v>7.0614999999999997</v>
+      </c>
+      <c r="C4">
+        <v>9.1187000000000005</v>
+      </c>
+      <c r="D4">
         <v>2.9523000000000001</v>
       </c>
-      <c r="C4">
+      <c r="E4">
+        <v>1.2678</v>
+      </c>
+      <c r="F4">
         <v>1.9202999999999999</v>
       </c>
-      <c r="D4">
-        <v>9.1187000000000005</v>
-      </c>
-      <c r="E4">
+      <c r="G4">
+        <v>1.0328999999999999</v>
+      </c>
+      <c r="H4">
         <v>0.82289000000000001</v>
-      </c>
-      <c r="F4">
-        <v>1.0328999999999999</v>
-      </c>
-      <c r="G4">
-        <v>7.0614999999999997</v>
-      </c>
-      <c r="H4">
-        <v>1.2678</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -580,25 +580,25 @@
         <v>3</v>
       </c>
       <c r="B5">
+        <v>4.8281000000000001</v>
+      </c>
+      <c r="C5">
+        <v>5.7632000000000003</v>
+      </c>
+      <c r="D5">
         <v>2.4567999999999999</v>
       </c>
-      <c r="C5">
+      <c r="E5">
+        <v>0.63093999999999995</v>
+      </c>
+      <c r="F5">
         <v>1.1923999999999999</v>
       </c>
-      <c r="D5">
-        <v>5.7632000000000003</v>
-      </c>
-      <c r="E5">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
         <v>0.46183999999999997</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>4.8281000000000001</v>
-      </c>
-      <c r="H5">
-        <v>0.63093999999999995</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -606,25 +606,25 @@
         <v>4</v>
       </c>
       <c r="B6">
+        <v>3.9889999999999999</v>
+      </c>
+      <c r="C6">
+        <v>24.068999999999999</v>
+      </c>
+      <c r="D6">
         <v>5.4321000000000002</v>
       </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>24.068999999999999</v>
-      </c>
       <c r="E6">
+        <v>0.12484000000000001</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
         <v>1.5235000000000001</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>3.9889999999999999</v>
-      </c>
-      <c r="H6">
-        <v>0.12484000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -632,25 +632,25 @@
         <v>5</v>
       </c>
       <c r="B7">
+        <v>2.8626</v>
+      </c>
+      <c r="C7">
+        <v>13.416</v>
+      </c>
+      <c r="D7">
         <v>2.4333999999999998</v>
       </c>
-      <c r="C7">
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
         <v>0.19977</v>
       </c>
-      <c r="D7">
-        <v>13.416</v>
-      </c>
-      <c r="E7">
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
         <v>0.88802000000000003</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>2.8626</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -658,25 +658,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>0.73397000000000001</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>17.888999999999999</v>
       </c>
       <c r="D8">
-        <v>17.888999999999999</v>
+        <v>0</v>
       </c>
       <c r="E8">
+        <v>1.3724000000000001</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>2.0600999999999998</v>
+      </c>
+      <c r="H8">
         <v>1.7321</v>
-      </c>
-      <c r="F8">
-        <v>2.0600999999999998</v>
-      </c>
-      <c r="G8">
-        <v>0.73397000000000001</v>
-      </c>
-      <c r="H8">
-        <v>1.3724000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -684,25 +684,25 @@
         <v>7</v>
       </c>
       <c r="B9">
+        <v>21.062999999999999</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
         <v>9.4622999999999999E-2</v>
       </c>
-      <c r="C9">
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
         <v>2.8803000000000001</v>
       </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
+      <c r="G9">
+        <v>0.35458000000000001</v>
+      </c>
+      <c r="H9">
         <v>0.33021</v>
-      </c>
-      <c r="F9">
-        <v>0.35458000000000001</v>
-      </c>
-      <c r="G9">
-        <v>21.062999999999999</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -710,25 +710,25 @@
         <v>8</v>
       </c>
       <c r="B10">
+        <v>0.24163000000000001</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
         <v>8.3098000000000005E-2</v>
       </c>
-      <c r="C10">
+      <c r="E10">
+        <v>3.9551000000000003E-2</v>
+      </c>
+      <c r="F10">
         <v>1.4611000000000001E-2</v>
       </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
+      <c r="G10">
+        <v>6.5114999999999997E-4</v>
+      </c>
+      <c r="H10">
         <v>2.2567E-2</v>
-      </c>
-      <c r="F10">
-        <v>6.5114999999999997E-4</v>
-      </c>
-      <c r="G10">
-        <v>0.24163000000000001</v>
-      </c>
-      <c r="H10">
-        <v>3.9551000000000003E-2</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -736,25 +736,25 @@
         <v>9</v>
       </c>
       <c r="B11">
+        <v>3.8841000000000003E-5</v>
+      </c>
+      <c r="C11">
+        <v>1.0366E-5</v>
+      </c>
+      <c r="D11">
         <v>4.6975999999999999E-5</v>
       </c>
-      <c r="C11">
+      <c r="E11">
+        <v>7.5108E-5</v>
+      </c>
+      <c r="F11">
         <v>6.4888999999999995E-5</v>
       </c>
-      <c r="D11">
-        <v>1.0366E-5</v>
-      </c>
-      <c r="E11">
+      <c r="G11">
+        <v>1.0169E-4</v>
+      </c>
+      <c r="H11">
         <v>2.3277000000000001E-5</v>
-      </c>
-      <c r="F11">
-        <v>1.0169E-4</v>
-      </c>
-      <c r="G11">
-        <v>3.8841000000000003E-5</v>
-      </c>
-      <c r="H11">
-        <v>7.5108E-5</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -762,25 +762,25 @@
         <v>10</v>
       </c>
       <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
         <v>0.37935999999999998</v>
       </c>
-      <c r="C12">
+      <c r="E12">
+        <v>0.46648000000000001</v>
+      </c>
+      <c r="F12">
         <v>0.29237000000000002</v>
       </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
+      <c r="G12">
         <v>7.4010000000000006E-2</v>
       </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
       <c r="H12">
-        <v>0.46648000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -788,25 +788,25 @@
         <v>11</v>
       </c>
       <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
         <v>2.6939999999999999E-2</v>
       </c>
-      <c r="C13">
+      <c r="E13">
+        <v>1.8943999999999999E-2</v>
+      </c>
+      <c r="F13">
         <v>4.5796999999999997E-2</v>
       </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
         <v>8.9210000000000001E-3</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>1.8943999999999999E-2</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -814,25 +814,25 @@
         <v>12</v>
       </c>
       <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
         <v>0.56974999999999998</v>
       </c>
-      <c r="C14">
+      <c r="E14">
+        <v>1.9872999999999998E-2</v>
+      </c>
+      <c r="F14">
         <v>0.34075</v>
       </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
+      <c r="G14">
         <v>3.8997999999999998E-2</v>
       </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
       <c r="H14">
-        <v>1.9872999999999998E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -840,25 +840,25 @@
         <v>13</v>
       </c>
       <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0.49675999999999998</v>
+      </c>
+      <c r="D15">
         <v>0.21434</v>
       </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="D15">
-        <v>0.49675999999999998</v>
-      </c>
       <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
         <v>0.25878000000000001</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -866,25 +866,25 @@
         <v>14</v>
       </c>
       <c r="B16">
+        <v>1.1971E-4</v>
+      </c>
+      <c r="C16">
+        <v>7.7478000000000006E-5</v>
+      </c>
+      <c r="D16">
         <v>3.6109000000000003E-5</v>
       </c>
-      <c r="C16">
+      <c r="E16">
+        <v>5.4900000000000001E-3</v>
+      </c>
+      <c r="F16">
         <v>1.2228E-3</v>
       </c>
-      <c r="D16">
-        <v>7.7478000000000006E-5</v>
-      </c>
-      <c r="E16">
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
         <v>5.8343000000000002E-4</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="G16">
-        <v>1.1971E-4</v>
-      </c>
-      <c r="H16">
-        <v>5.4900000000000001E-3</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -892,25 +892,25 @@
         <v>15</v>
       </c>
       <c r="B17">
+        <v>6.1627000000000001E-3</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
         <v>3.9238000000000002E-2</v>
       </c>
-      <c r="C17">
+      <c r="E17">
+        <v>6.9423999999999996E-3</v>
+      </c>
+      <c r="F17">
         <v>7.7330999999999997E-3</v>
       </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17">
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
         <v>4.6686999999999999E-2</v>
-      </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-      <c r="G17">
-        <v>6.1627000000000001E-3</v>
-      </c>
-      <c r="H17">
-        <v>6.9423999999999996E-3</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -918,25 +918,25 @@
         <v>16</v>
       </c>
       <c r="B18">
+        <v>1.1787E-3</v>
+      </c>
+      <c r="C18">
+        <v>5.8379999999999999E-4</v>
+      </c>
+      <c r="D18">
         <v>9.0428000000000004E-4</v>
       </c>
-      <c r="C18">
+      <c r="E18">
+        <v>1.4733000000000001E-3</v>
+      </c>
+      <c r="F18">
         <v>6.4955999999999998E-4</v>
       </c>
-      <c r="D18">
-        <v>5.8379999999999999E-4</v>
-      </c>
-      <c r="E18">
+      <c r="G18">
+        <v>1.1441000000000001E-3</v>
+      </c>
+      <c r="H18">
         <v>8.5170000000000005E-4</v>
-      </c>
-      <c r="F18">
-        <v>1.1441000000000001E-3</v>
-      </c>
-      <c r="G18">
-        <v>1.1787E-3</v>
-      </c>
-      <c r="H18">
-        <v>1.4733000000000001E-3</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -944,25 +944,25 @@
         <v>17</v>
       </c>
       <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
         <v>7.9120000000000001E-5</v>
       </c>
-      <c r="C19">
+      <c r="E19">
+        <v>3.1388999999999999E-4</v>
+      </c>
+      <c r="F19">
         <v>3.3377999999999998E-5</v>
       </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19">
+      <c r="G19">
+        <v>1.3329000000000001E-5</v>
+      </c>
+      <c r="H19">
         <v>1.5670000000000001E-5</v>
-      </c>
-      <c r="F19">
-        <v>1.3329000000000001E-5</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>3.1388999999999999E-4</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -970,25 +970,25 @@
         <v>18</v>
       </c>
       <c r="B20">
+        <v>3.0044000000000001E-2</v>
+      </c>
+      <c r="C20">
+        <v>3.4765999999999998E-2</v>
+      </c>
+      <c r="D20">
         <v>8.6593000000000003E-2</v>
       </c>
-      <c r="C20">
+      <c r="E20">
+        <v>3.3057000000000003E-2</v>
+      </c>
+      <c r="F20">
         <v>7.5243000000000003E-3</v>
       </c>
-      <c r="D20">
-        <v>3.4765999999999998E-2</v>
-      </c>
-      <c r="E20">
+      <c r="G20">
+        <v>2.7014E-2</v>
+      </c>
+      <c r="H20">
         <v>1.1849999999999999E-2</v>
-      </c>
-      <c r="F20">
-        <v>2.7014E-2</v>
-      </c>
-      <c r="G20">
-        <v>3.0044000000000001E-2</v>
-      </c>
-      <c r="H20">
-        <v>3.3057000000000003E-2</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -996,25 +996,25 @@
         <v>19</v>
       </c>
       <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
         <v>1.8181999999999999E-4</v>
       </c>
-      <c r="C21">
+      <c r="E21">
+        <v>3.4375999999999997E-4</v>
+      </c>
+      <c r="F21">
         <v>2.1971999999999999E-4</v>
       </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-      <c r="E21">
+      <c r="G21">
+        <v>1.4365999999999999E-4</v>
+      </c>
+      <c r="H21">
         <v>1.1765E-4</v>
-      </c>
-      <c r="F21">
-        <v>1.4365999999999999E-4</v>
-      </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>3.4375999999999997E-4</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -1022,25 +1022,25 @@
         <v>20</v>
       </c>
       <c r="B22">
+        <v>7.5361000000000004E-4</v>
+      </c>
+      <c r="C22">
+        <v>2.016E-3</v>
+      </c>
+      <c r="D22">
         <v>2.3822000000000001E-3</v>
       </c>
-      <c r="C22">
-        <v>0</v>
-      </c>
-      <c r="D22">
-        <v>2.016E-3</v>
-      </c>
       <c r="E22">
+        <v>1.9158000000000001E-3</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>2.3858E-3</v>
+      </c>
+      <c r="H22">
         <v>7.6316000000000003E-4</v>
-      </c>
-      <c r="F22">
-        <v>2.3858E-3</v>
-      </c>
-      <c r="G22">
-        <v>7.5361000000000004E-4</v>
-      </c>
-      <c r="H22">
-        <v>1.9158000000000001E-3</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -1048,25 +1048,25 @@
         <v>21</v>
       </c>
       <c r="B23">
+        <v>5.5701000000000004E-4</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
         <v>9.859999999999999E-4</v>
       </c>
-      <c r="C23">
+      <c r="E23">
+        <v>1.4728E-3</v>
+      </c>
+      <c r="F23">
         <v>1.5619E-3</v>
       </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-      <c r="E23">
+      <c r="G23">
+        <v>1.0116000000000001E-3</v>
+      </c>
+      <c r="H23">
         <v>4.7482000000000002E-3</v>
-      </c>
-      <c r="F23">
-        <v>1.0116000000000001E-3</v>
-      </c>
-      <c r="G23">
-        <v>5.5701000000000004E-4</v>
-      </c>
-      <c r="H23">
-        <v>1.4728E-3</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -1074,25 +1074,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>9.8703999999999997E-3</v>
       </c>
       <c r="C24">
+        <v>2.4651999999999999E-3</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
         <v>6.2192999999999998E-2</v>
       </c>
-      <c r="D24">
-        <v>2.4651999999999999E-3</v>
-      </c>
-      <c r="E24">
+      <c r="G24">
+        <v>2.7380999999999998E-3</v>
+      </c>
+      <c r="H24">
         <v>6.3477000000000004E-3</v>
-      </c>
-      <c r="F24">
-        <v>2.7380999999999998E-3</v>
-      </c>
-      <c r="G24">
-        <v>9.8703999999999997E-3</v>
-      </c>
-      <c r="H24">
-        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -1100,25 +1100,25 @@
         <v>23</v>
       </c>
       <c r="B25">
+        <v>3.4856E-5</v>
+      </c>
+      <c r="C25">
+        <v>3.1436000000000002E-4</v>
+      </c>
+      <c r="D25">
         <v>9.1958999999999997E-4</v>
       </c>
-      <c r="C25">
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
         <v>3.2681000000000002E-4</v>
       </c>
-      <c r="D25">
-        <v>3.1436000000000002E-4</v>
-      </c>
-      <c r="E25">
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
         <v>9.5434999999999993E-6</v>
-      </c>
-      <c r="F25">
-        <v>0</v>
-      </c>
-      <c r="G25">
-        <v>3.4856E-5</v>
-      </c>
-      <c r="H25">
-        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -1126,25 +1126,25 @@
         <v>24</v>
       </c>
       <c r="B26">
+        <v>1.9705999999999999E-4</v>
+      </c>
+      <c r="C26">
+        <v>2.3779000000000001E-4</v>
+      </c>
+      <c r="D26">
         <v>8.0995000000000004E-4</v>
       </c>
-      <c r="C26">
+      <c r="E26">
+        <v>1.2348999999999999E-3</v>
+      </c>
+      <c r="F26">
         <v>5.0195000000000003E-4</v>
       </c>
-      <c r="D26">
-        <v>2.3779000000000001E-4</v>
-      </c>
-      <c r="E26">
+      <c r="G26">
+        <v>7.0149999999999998E-4</v>
+      </c>
+      <c r="H26">
         <v>1.1635E-4</v>
-      </c>
-      <c r="F26">
-        <v>7.0149999999999998E-4</v>
-      </c>
-      <c r="G26">
-        <v>1.9705999999999999E-4</v>
-      </c>
-      <c r="H26">
-        <v>1.2348999999999999E-3</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -1152,25 +1152,25 @@
         <v>25</v>
       </c>
       <c r="B27">
+        <v>8.2583000000000005E-4</v>
+      </c>
+      <c r="C27">
+        <v>1.8048000000000001E-4</v>
+      </c>
+      <c r="D27">
         <v>3.8978999999999999E-4</v>
       </c>
-      <c r="C27">
+      <c r="E27">
+        <v>1.5713999999999999E-3</v>
+      </c>
+      <c r="F27">
         <v>1.0771999999999999E-3</v>
       </c>
-      <c r="D27">
-        <v>1.8048000000000001E-4</v>
-      </c>
-      <c r="E27">
+      <c r="G27">
+        <v>1.5007E-3</v>
+      </c>
+      <c r="H27">
         <v>2.5974E-4</v>
-      </c>
-      <c r="F27">
-        <v>1.5007E-3</v>
-      </c>
-      <c r="G27">
-        <v>8.2583000000000005E-4</v>
-      </c>
-      <c r="H27">
-        <v>1.5713999999999999E-3</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -1178,25 +1178,25 @@
         <v>26</v>
       </c>
       <c r="B28">
+        <v>1.5505E-4</v>
+      </c>
+      <c r="C28">
+        <v>5.3483000000000003E-4</v>
+      </c>
+      <c r="D28">
         <v>4.5326999999999998E-4</v>
       </c>
-      <c r="C28">
+      <c r="E28">
+        <v>4.1368999999999998E-4</v>
+      </c>
+      <c r="F28">
         <v>1.1355E-4</v>
       </c>
-      <c r="D28">
-        <v>5.3483000000000003E-4</v>
-      </c>
-      <c r="E28">
-        <v>0</v>
-      </c>
-      <c r="F28">
-        <v>0</v>
-      </c>
       <c r="G28">
-        <v>1.5505E-4</v>
+        <v>0</v>
       </c>
       <c r="H28">
-        <v>4.1368999999999998E-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -1204,16 +1204,16 @@
         <v>27</v>
       </c>
       <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>7.6326000000000001E-5</v>
+      </c>
+      <c r="D29">
         <v>2.8899999999999998E-4</v>
       </c>
-      <c r="C29">
-        <v>0</v>
-      </c>
-      <c r="D29">
-        <v>7.6326000000000001E-5</v>
-      </c>
       <c r="E29">
-        <v>0</v>
+        <v>1.0472999999999999E-3</v>
       </c>
       <c r="F29">
         <v>0</v>
@@ -1222,7 +1222,7 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>1.0472999999999999E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -1230,25 +1230,25 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>0</v>
+        <v>6.1204E-4</v>
       </c>
       <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
         <v>1.1425000000000001E-3</v>
       </c>
-      <c r="D30">
-        <v>0</v>
-      </c>
-      <c r="E30">
+      <c r="G30">
+        <v>2.9810000000000001E-3</v>
+      </c>
+      <c r="H30">
         <v>3.8330000000000003E-2</v>
-      </c>
-      <c r="F30">
-        <v>2.9810000000000001E-3</v>
-      </c>
-      <c r="G30">
-        <v>6.1204E-4</v>
-      </c>
-      <c r="H30">
-        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -1256,25 +1256,25 @@
         <v>29</v>
       </c>
       <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
         <v>6.1715000000000001E-4</v>
       </c>
-      <c r="C31">
+      <c r="E31">
+        <v>9.1759999999999997E-4</v>
+      </c>
+      <c r="F31">
         <v>2.3253000000000002E-3</v>
       </c>
-      <c r="D31">
-        <v>0</v>
-      </c>
-      <c r="E31">
+      <c r="G31">
+        <v>1.2978999999999999E-2</v>
+      </c>
+      <c r="H31">
         <v>4.2214999999999999E-4</v>
-      </c>
-      <c r="F31">
-        <v>1.2978999999999999E-2</v>
-      </c>
-      <c r="G31">
-        <v>0</v>
-      </c>
-      <c r="H31">
-        <v>9.1759999999999997E-4</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -1282,25 +1282,25 @@
         <v>30</v>
       </c>
       <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>5.2302000000000002E-4</v>
+      </c>
+      <c r="D32">
         <v>4.2441000000000001E-4</v>
       </c>
-      <c r="C32">
-        <v>0</v>
-      </c>
-      <c r="D32">
-        <v>5.2302000000000002E-4</v>
-      </c>
       <c r="E32">
-        <v>0</v>
+        <v>2.1442000000000002E-3</v>
       </c>
       <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
         <v>4.9731000000000005E-4</v>
       </c>
-      <c r="G32">
-        <v>0</v>
-      </c>
       <c r="H32">
-        <v>2.1442000000000002E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -1308,25 +1308,25 @@
         <v>31</v>
       </c>
       <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>1.1573E-2</v>
+      </c>
+      <c r="D33">
         <v>8.2410000000000001E-3</v>
       </c>
-      <c r="C33">
+      <c r="E33">
+        <v>5.5443999999999997E-3</v>
+      </c>
+      <c r="F33">
         <v>9.6758E-3</v>
       </c>
-      <c r="D33">
-        <v>1.1573E-2</v>
-      </c>
-      <c r="E33">
+      <c r="G33">
+        <v>2.3504000000000001E-2</v>
+      </c>
+      <c r="H33">
         <v>5.2580999999999999E-3</v>
-      </c>
-      <c r="F33">
-        <v>2.3504000000000001E-2</v>
-      </c>
-      <c r="G33">
-        <v>0</v>
-      </c>
-      <c r="H33">
-        <v>5.5443999999999997E-3</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
@@ -1334,25 +1334,25 @@
         <v>32</v>
       </c>
       <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
         <v>5.7700999999999998E-4</v>
       </c>
-      <c r="C34">
+      <c r="E34">
+        <v>1.9987999999999998E-3</v>
+      </c>
+      <c r="F34">
         <v>1.8877E-4</v>
       </c>
-      <c r="D34">
-        <v>0</v>
-      </c>
-      <c r="E34">
-        <v>0</v>
-      </c>
-      <c r="F34">
+      <c r="G34">
         <v>2.0844E-4</v>
       </c>
-      <c r="G34">
-        <v>0</v>
-      </c>
       <c r="H34">
-        <v>1.9987999999999998E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
@@ -1360,25 +1360,25 @@
         <v>33</v>
       </c>
       <c r="B35">
+        <v>43.545999999999999</v>
+      </c>
+      <c r="C35">
+        <v>67.900000000000006</v>
+      </c>
+      <c r="D35">
         <v>14.766</v>
       </c>
-      <c r="C35">
+      <c r="E35">
+        <v>3.7902999999999998</v>
+      </c>
+      <c r="F35">
         <v>8.4708000000000006</v>
       </c>
-      <c r="D35">
-        <v>67.900000000000006</v>
-      </c>
-      <c r="E35">
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
         <v>6.4598000000000004</v>
-      </c>
-      <c r="F35">
-        <v>0</v>
-      </c>
-      <c r="G35">
-        <v>43.545999999999999</v>
-      </c>
-      <c r="H35">
-        <v>3.7902999999999998</v>
       </c>
     </row>
   </sheetData>
@@ -1391,32 +1391,32 @@
   <dimension ref="A2:H36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:H2"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" t="s">
         <v>36</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" t="s">
         <v>34</v>
       </c>
-      <c r="D2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" t="s">
         <v>28</v>
-      </c>
-      <c r="F2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H2" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -1424,25 +1424,25 @@
         <v>0</v>
       </c>
       <c r="B3">
+        <v>21.683938408071999</v>
+      </c>
+      <c r="C3">
+        <v>52.890578543001702</v>
+      </c>
+      <c r="D3">
         <v>8.8200419459403001</v>
       </c>
-      <c r="C3">
+      <c r="E3">
+        <v>2.99158588650858</v>
+      </c>
+      <c r="F3">
         <v>8.8942247775405203</v>
       </c>
-      <c r="D3">
-        <v>52.890578543001702</v>
-      </c>
-      <c r="E3">
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
         <v>4.71963043893685</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>21.683938408071999</v>
-      </c>
-      <c r="H3">
-        <v>2.99158588650858</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -1450,25 +1450,25 @@
         <v>1</v>
       </c>
       <c r="B4">
+        <v>28.143982433469098</v>
+      </c>
+      <c r="C4">
+        <v>47.032193271066497</v>
+      </c>
+      <c r="D4">
         <v>8.4574144908723792</v>
       </c>
-      <c r="C4">
+      <c r="E4">
+        <v>1.8561914131366499</v>
+      </c>
+      <c r="F4">
         <v>10.676856157981099</v>
       </c>
-      <c r="D4">
-        <v>47.032193271066497</v>
-      </c>
-      <c r="E4">
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
         <v>3.8333622334742099</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>28.143982433469098</v>
-      </c>
-      <c r="H4">
-        <v>1.8561914131366499</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -1476,25 +1476,25 @@
         <v>2</v>
       </c>
       <c r="B5">
+        <v>29.2082482124089</v>
+      </c>
+      <c r="C5">
+        <v>37.717376332860297</v>
+      </c>
+      <c r="D5">
         <v>12.2115005590165</v>
       </c>
-      <c r="C5">
+      <c r="E5">
+        <v>5.2439590857030396</v>
+      </c>
+      <c r="F5">
         <v>7.9428731915724402</v>
       </c>
-      <c r="D5">
-        <v>37.717376332860297</v>
-      </c>
-      <c r="E5">
+      <c r="G5">
+        <v>4.2723500075900498</v>
+      </c>
+      <c r="H5">
         <v>3.4036926108488501</v>
-      </c>
-      <c r="F5">
-        <v>4.2723500075900498</v>
-      </c>
-      <c r="G5">
-        <v>29.2082482124089</v>
-      </c>
-      <c r="H5">
-        <v>5.2439590857030396</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -1502,25 +1502,25 @@
         <v>3</v>
       </c>
       <c r="B6">
+        <v>31.487718218150299</v>
+      </c>
+      <c r="C6">
+        <v>37.586217691191997</v>
+      </c>
+      <c r="D6">
         <v>16.022664426658899</v>
       </c>
-      <c r="C6">
+      <c r="E6">
+        <v>4.1148403994448701</v>
+      </c>
+      <c r="F6">
         <v>7.7765487879957798</v>
       </c>
-      <c r="D6">
-        <v>37.586217691191997</v>
-      </c>
-      <c r="E6">
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
         <v>3.0120104765581801</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>31.487718218150299</v>
-      </c>
-      <c r="H6">
-        <v>4.1148403994448701</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -1528,25 +1528,25 @@
         <v>4</v>
       </c>
       <c r="B7">
+        <v>11.352239883159299</v>
+      </c>
+      <c r="C7">
+        <v>68.497633930248497</v>
+      </c>
+      <c r="D7">
         <v>15.4591381973702</v>
       </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>68.497633930248497</v>
-      </c>
       <c r="E7">
+        <v>0.35528042793020997</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
         <v>4.3357075612918496</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>11.352239883159299</v>
-      </c>
-      <c r="H7">
-        <v>0.35528042793020997</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -1554,25 +1554,25 @@
         <v>5</v>
       </c>
       <c r="B8">
+        <v>14.4577290971268</v>
+      </c>
+      <c r="C8">
+        <v>67.7582944061528</v>
+      </c>
+      <c r="D8">
         <v>12.290029338695</v>
       </c>
-      <c r="C8">
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
         <v>1.0089500949252499</v>
       </c>
-      <c r="D8">
-        <v>67.7582944061528</v>
-      </c>
-      <c r="E8">
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
         <v>4.4849970631001597</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>14.4577290971268</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -1580,25 +1580,25 @@
         <v>6</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>3.0855190336802001</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>75.203141808936394</v>
       </c>
       <c r="D9">
-        <v>75.203141808936394</v>
+        <v>0</v>
       </c>
       <c r="E9">
+        <v>5.7693997327175497</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>8.6604054134154893</v>
+      </c>
+      <c r="H9">
         <v>7.2815340112504199</v>
-      </c>
-      <c r="F9">
-        <v>8.6604054134154893</v>
-      </c>
-      <c r="G9">
-        <v>3.0855190336802001</v>
-      </c>
-      <c r="H9">
-        <v>5.7693997327175497</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -1606,25 +1606,25 @@
         <v>7</v>
       </c>
       <c r="B10">
+        <v>85.196960382139295</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
         <v>0.38273712112420699</v>
       </c>
-      <c r="C10">
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
         <v>11.650420404912699</v>
       </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
+      <c r="G10">
+        <v>1.4342277079380401</v>
+      </c>
+      <c r="H10">
         <v>1.3356543838857799</v>
-      </c>
-      <c r="F10">
-        <v>1.4342277079380401</v>
-      </c>
-      <c r="G10">
-        <v>85.196960382139295</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -1632,25 +1632,25 @@
         <v>8</v>
       </c>
       <c r="B11">
+        <v>60.090798955455099</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
         <v>20.6655846194612</v>
       </c>
-      <c r="C11">
+      <c r="E11">
+        <v>9.8359110602458593</v>
+      </c>
+      <c r="F11">
         <v>3.6335995676785</v>
       </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
+      <c r="G11">
+        <v>0.16193404684784399</v>
+      </c>
+      <c r="H11">
         <v>5.6121717503114503</v>
-      </c>
-      <c r="F11">
-        <v>0.16193404684784399</v>
-      </c>
-      <c r="G11">
-        <v>60.090798955455099</v>
-      </c>
-      <c r="H11">
-        <v>9.8359110602458593</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -1658,25 +1658,25 @@
         <v>9</v>
       </c>
       <c r="B12">
+        <v>10.754900359133501</v>
+      </c>
+      <c r="C12">
+        <v>2.8702993517875002</v>
+      </c>
+      <c r="D12">
         <v>13.007445721548301</v>
       </c>
-      <c r="C12">
+      <c r="E12">
+        <v>20.797071552581102</v>
+      </c>
+      <c r="F12">
         <v>17.967475847785</v>
       </c>
-      <c r="D12">
-        <v>2.8702993517875002</v>
-      </c>
-      <c r="E12">
+      <c r="G12">
+        <v>28.157509269078801</v>
+      </c>
+      <c r="H12">
         <v>6.44529789808582</v>
-      </c>
-      <c r="F12">
-        <v>28.157509269078801</v>
-      </c>
-      <c r="G12">
-        <v>10.754900359133501</v>
-      </c>
-      <c r="H12">
-        <v>20.797071552581102</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -1684,25 +1684,25 @@
         <v>10</v>
       </c>
       <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
         <v>31.294649486066898</v>
       </c>
-      <c r="C13">
+      <c r="E13">
+        <v>38.481463760703498</v>
+      </c>
+      <c r="F13">
         <v>24.118559337413998</v>
       </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
+      <c r="G13">
         <v>6.1053274158156103</v>
       </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
       <c r="H13">
-        <v>38.481463760703498</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -1710,25 +1710,25 @@
         <v>11</v>
       </c>
       <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
         <v>26.778791674121798</v>
       </c>
-      <c r="C14">
+      <c r="E14">
+        <v>18.830639549909499</v>
+      </c>
+      <c r="F14">
         <v>45.522951829983498</v>
       </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14">
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
         <v>8.8676169459851693</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>18.830639549909499</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -1736,25 +1736,25 @@
         <v>12</v>
       </c>
       <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
         <v>58.775226409702803</v>
       </c>
-      <c r="C15">
+      <c r="E15">
+        <v>2.0500922763317702</v>
+      </c>
+      <c r="F15">
         <v>35.1516602002742</v>
       </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
+      <c r="G15">
         <v>4.0230211136912502</v>
       </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
       <c r="H15">
-        <v>2.0500922763317702</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -1762,25 +1762,25 @@
         <v>13</v>
       </c>
       <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>51.218707468965199</v>
+      </c>
+      <c r="D16">
         <v>22.099641192724899</v>
       </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-      <c r="D16">
-        <v>51.218707468965199</v>
-      </c>
       <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
         <v>26.681651338309901</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -1788,25 +1788,25 @@
         <v>14</v>
       </c>
       <c r="B17">
+        <v>1.58987410497366</v>
+      </c>
+      <c r="C17">
+        <v>1.02898893914585</v>
+      </c>
+      <c r="D17">
         <v>0.47956531665269297</v>
       </c>
-      <c r="C17">
+      <c r="E17">
+        <v>72.912946590137693</v>
+      </c>
+      <c r="F17">
         <v>16.2400639508963</v>
       </c>
-      <c r="D17">
-        <v>1.02898893914585</v>
-      </c>
-      <c r="E17">
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
         <v>7.7485610981938198</v>
-      </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-      <c r="G17">
-        <v>1.58987410497366</v>
-      </c>
-      <c r="H17">
-        <v>72.912946590137693</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -1814,25 +1814,25 @@
         <v>15</v>
       </c>
       <c r="B18">
+        <v>5.7723073118827504</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
         <v>36.752364110480002</v>
       </c>
-      <c r="C18">
+      <c r="E18">
+        <v>6.50261513330436</v>
+      </c>
+      <c r="F18">
         <v>7.2432261303520296</v>
       </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18">
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
         <v>43.729487313980897</v>
-      </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-      <c r="G18">
-        <v>5.7723073118827504</v>
-      </c>
-      <c r="H18">
-        <v>6.50261513330436</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -1840,25 +1840,25 @@
         <v>16</v>
       </c>
       <c r="B19">
+        <v>17.371017944304299</v>
+      </c>
+      <c r="C19">
+        <v>8.6037161923176697</v>
+      </c>
+      <c r="D19">
         <v>13.3267702610295</v>
       </c>
-      <c r="C19">
+      <c r="E19">
+        <v>21.712667122544701</v>
+      </c>
+      <c r="F19">
         <v>9.5728501025725699</v>
       </c>
-      <c r="D19">
-        <v>8.6037161923176697</v>
-      </c>
-      <c r="E19">
+      <c r="G19">
+        <v>16.861102596146999</v>
+      </c>
+      <c r="H19">
         <v>12.551875781084201</v>
-      </c>
-      <c r="F19">
-        <v>16.861102596146999</v>
-      </c>
-      <c r="G19">
-        <v>17.371017944304299</v>
-      </c>
-      <c r="H19">
-        <v>21.712667122544701</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -1866,25 +1866,25 @@
         <v>17</v>
       </c>
       <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
         <v>17.374233344386202</v>
       </c>
-      <c r="C20">
+      <c r="E20">
+        <v>68.928186355780895</v>
+      </c>
+      <c r="F20">
         <v>7.3295899970794096</v>
       </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="E20">
+      <c r="G20">
+        <v>2.9269610243595001</v>
+      </c>
+      <c r="H20">
         <v>3.4410292783939802</v>
-      </c>
-      <c r="F20">
-        <v>2.9269610243595001</v>
-      </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>68.928186355780895</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -1892,25 +1892,25 @@
         <v>18</v>
       </c>
       <c r="B21">
+        <v>13.014607428341501</v>
+      </c>
+      <c r="C21">
+        <v>15.060106572151501</v>
+      </c>
+      <c r="D21">
         <v>37.5107808894413</v>
       </c>
-      <c r="C21">
+      <c r="E21">
+        <v>14.319793561399401</v>
+      </c>
+      <c r="F21">
         <v>3.2594132163849601</v>
       </c>
-      <c r="D21">
-        <v>15.060106572151501</v>
-      </c>
-      <c r="E21">
+      <c r="G21">
+        <v>11.7020571518179</v>
+      </c>
+      <c r="H21">
         <v>5.1332411804635303</v>
-      </c>
-      <c r="F21">
-        <v>11.7020571518179</v>
-      </c>
-      <c r="G21">
-        <v>13.014607428341501</v>
-      </c>
-      <c r="H21">
-        <v>14.319793561399401</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -1918,25 +1918,25 @@
         <v>19</v>
       </c>
       <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
         <v>18.062606173195199</v>
       </c>
-      <c r="C22">
+      <c r="E22">
+        <v>34.150266736869298</v>
+      </c>
+      <c r="F22">
         <v>21.827718778871699</v>
       </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-      <c r="E22">
+      <c r="G22">
+        <v>14.271664298983699</v>
+      </c>
+      <c r="H22">
         <v>11.6877440120802</v>
-      </c>
-      <c r="F22">
-        <v>14.271664298983699</v>
-      </c>
-      <c r="G22">
-        <v>0</v>
-      </c>
-      <c r="H22">
-        <v>34.150266736869298</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -1944,25 +1944,25 @@
         <v>20</v>
       </c>
       <c r="B23">
+        <v>7.3763503798241503</v>
+      </c>
+      <c r="C23">
+        <v>19.732649998972299</v>
+      </c>
+      <c r="D23">
         <v>23.317023227952198</v>
       </c>
-      <c r="C23">
-        <v>0</v>
-      </c>
-      <c r="D23">
-        <v>19.732649998972299</v>
-      </c>
       <c r="E23">
+        <v>18.751890311523301</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>23.3522601029504</v>
+      </c>
+      <c r="H23">
         <v>7.4698259787776102</v>
-      </c>
-      <c r="F23">
-        <v>23.3522601029504</v>
-      </c>
-      <c r="G23">
-        <v>7.3763503798241503</v>
-      </c>
-      <c r="H23">
-        <v>18.751890311523301</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -1970,25 +1970,25 @@
         <v>21</v>
       </c>
       <c r="B24">
+        <v>5.3882414624024504</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
         <v>9.5380802533685607</v>
       </c>
-      <c r="C24">
+      <c r="E24">
+        <v>14.247144621867401</v>
+      </c>
+      <c r="F24">
         <v>15.109054308049</v>
       </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-      <c r="E24">
+      <c r="G24">
+        <v>9.7857220936182898</v>
+      </c>
+      <c r="H24">
         <v>45.931757260694297</v>
-      </c>
-      <c r="F24">
-        <v>9.7857220936182898</v>
-      </c>
-      <c r="G24">
-        <v>5.3882414624024504</v>
-      </c>
-      <c r="H24">
-        <v>14.247144621867401</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -1996,25 +1996,25 @@
         <v>22</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>11.8046652251287</v>
       </c>
       <c r="C25">
+        <v>2.94829598729405</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
         <v>74.380728678313801</v>
       </c>
-      <c r="D25">
-        <v>2.94829598729405</v>
-      </c>
-      <c r="E25">
+      <c r="G25">
+        <v>3.27467517556784</v>
+      </c>
+      <c r="H25">
         <v>7.5916349336956301</v>
-      </c>
-      <c r="F25">
-        <v>3.27467517556784</v>
-      </c>
-      <c r="G25">
-        <v>11.8046652251287</v>
-      </c>
-      <c r="H25">
-        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -2022,25 +2022,25 @@
         <v>23</v>
       </c>
       <c r="B26">
+        <v>2.17149759883675</v>
+      </c>
+      <c r="C26">
+        <v>19.584346602315801</v>
+      </c>
+      <c r="D26">
         <v>57.289633833896303</v>
       </c>
-      <c r="C26">
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
         <v>20.359970457764501</v>
       </c>
-      <c r="D26">
-        <v>19.584346602315801</v>
-      </c>
-      <c r="E26">
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
         <v>0.59455150718666905</v>
-      </c>
-      <c r="F26">
-        <v>0</v>
-      </c>
-      <c r="G26">
-        <v>2.17149759883675</v>
-      </c>
-      <c r="H26">
-        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -2048,25 +2048,25 @@
         <v>24</v>
       </c>
       <c r="B27">
+        <v>5.1864719041979201</v>
+      </c>
+      <c r="C27">
+        <v>6.2584550598763</v>
+      </c>
+      <c r="D27">
         <v>21.317278589288101</v>
       </c>
-      <c r="C27">
+      <c r="E27">
+        <v>32.501644953283297</v>
+      </c>
+      <c r="F27">
         <v>13.2109488090538</v>
       </c>
-      <c r="D27">
-        <v>6.2584550598763</v>
-      </c>
-      <c r="E27">
+      <c r="G27">
+        <v>18.462955652059499</v>
+      </c>
+      <c r="H27">
         <v>3.0622450322410799</v>
-      </c>
-      <c r="F27">
-        <v>18.462955652059499</v>
-      </c>
-      <c r="G27">
-        <v>5.1864719041979201</v>
-      </c>
-      <c r="H27">
-        <v>32.501644953283297</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -2074,25 +2074,25 @@
         <v>25</v>
       </c>
       <c r="B28">
+        <v>14.2258412372484</v>
+      </c>
+      <c r="C28">
+        <v>3.1089689482079699</v>
+      </c>
+      <c r="D28">
         <v>6.7145667460216298</v>
       </c>
-      <c r="C28">
+      <c r="E28">
+        <v>27.069114612223</v>
+      </c>
+      <c r="F28">
         <v>18.5559693650799</v>
       </c>
-      <c r="D28">
-        <v>3.1089689482079699</v>
-      </c>
-      <c r="E28">
+      <c r="G28">
+        <v>25.851228394147299</v>
+      </c>
+      <c r="H28">
         <v>4.4743106970719104</v>
-      </c>
-      <c r="F28">
-        <v>25.851228394147299</v>
-      </c>
-      <c r="G28">
-        <v>14.2258412372484</v>
-      </c>
-      <c r="H28">
-        <v>27.069114612223</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -2100,25 +2100,25 @@
         <v>26</v>
       </c>
       <c r="B29">
+        <v>9.2822634235118695</v>
+      </c>
+      <c r="C29">
+        <v>32.018271182178999</v>
+      </c>
+      <c r="D29">
         <v>27.135579116254299</v>
       </c>
-      <c r="C29">
+      <c r="E29">
+        <v>24.766072593825399</v>
+      </c>
+      <c r="F29">
         <v>6.7978136842294301</v>
       </c>
-      <c r="D29">
-        <v>32.018271182178999</v>
-      </c>
-      <c r="E29">
-        <v>0</v>
-      </c>
-      <c r="F29">
-        <v>0</v>
-      </c>
       <c r="G29">
-        <v>9.2822634235118695</v>
+        <v>0</v>
       </c>
       <c r="H29">
-        <v>24.766072593825399</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -2126,16 +2126,16 @@
         <v>27</v>
       </c>
       <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <v>5.4031286412681103</v>
+      </c>
+      <c r="D30">
         <v>20.458352033730101</v>
       </c>
-      <c r="C30">
-        <v>0</v>
-      </c>
-      <c r="D30">
-        <v>5.4031286412681103</v>
-      </c>
       <c r="E30">
-        <v>0</v>
+        <v>74.138519325001795</v>
       </c>
       <c r="F30">
         <v>0</v>
@@ -2144,7 +2144,7 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>74.138519325001795</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -2152,25 +2152,25 @@
         <v>28</v>
       </c>
       <c r="B31">
-        <v>0</v>
+        <v>1.42118269038308</v>
       </c>
       <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
         <v>2.6529331804500802</v>
       </c>
-      <c r="D31">
-        <v>0</v>
-      </c>
-      <c r="E31">
+      <c r="G31">
+        <v>6.9220077119664598</v>
+      </c>
+      <c r="H31">
         <v>89.003876417200402</v>
-      </c>
-      <c r="F31">
-        <v>6.9220077119664598</v>
-      </c>
-      <c r="G31">
-        <v>1.42118269038308</v>
-      </c>
-      <c r="H31">
-        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -2178,25 +2178,25 @@
         <v>29</v>
       </c>
       <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
         <v>3.5753597664125301</v>
       </c>
-      <c r="C32">
+      <c r="E32">
+        <v>5.3159687623108498</v>
+      </c>
+      <c r="F32">
         <v>13.4712534470373</v>
       </c>
-      <c r="D32">
-        <v>0</v>
-      </c>
-      <c r="E32">
+      <c r="G32">
+        <v>75.191759553217594</v>
+      </c>
+      <c r="H32">
         <v>2.44565847102171</v>
-      </c>
-      <c r="F32">
-        <v>75.191759553217594</v>
-      </c>
-      <c r="G32">
-        <v>0</v>
-      </c>
-      <c r="H32">
-        <v>5.3159687623108498</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -2204,25 +2204,25 @@
         <v>30</v>
       </c>
       <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>14.5731051508245</v>
+      </c>
+      <c r="D33">
         <v>11.825497222020999</v>
       </c>
-      <c r="C33">
-        <v>0</v>
-      </c>
-      <c r="D33">
-        <v>14.5731051508245</v>
-      </c>
       <c r="E33">
-        <v>0</v>
+        <v>59.7446599831705</v>
       </c>
       <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
         <v>13.856737643983999</v>
       </c>
-      <c r="G33">
-        <v>0</v>
-      </c>
       <c r="H33">
-        <v>59.7446599831705</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
@@ -2230,25 +2230,25 @@
         <v>31</v>
       </c>
       <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <v>18.140550470795301</v>
+      </c>
+      <c r="D34">
         <v>12.917677043966499</v>
       </c>
-      <c r="C34">
+      <c r="E34">
+        <v>8.6907861427700404</v>
+      </c>
+      <c r="F34">
         <v>15.1667102951112</v>
       </c>
-      <c r="D34">
-        <v>18.140550470795301</v>
-      </c>
-      <c r="E34">
+      <c r="G34">
+        <v>36.842262012060303</v>
+      </c>
+      <c r="H34">
         <v>8.2420140352967195</v>
-      </c>
-      <c r="F34">
-        <v>36.842262012060303</v>
-      </c>
-      <c r="G34">
-        <v>0</v>
-      </c>
-      <c r="H34">
-        <v>8.6907861427700404</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
@@ -2256,25 +2256,25 @@
         <v>32</v>
       </c>
       <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
         <v>19.408211179205001</v>
       </c>
-      <c r="C35">
+      <c r="E35">
+        <v>67.2313001594338</v>
+      </c>
+      <c r="F35">
         <v>6.3494359271044303</v>
       </c>
-      <c r="D35">
-        <v>0</v>
-      </c>
-      <c r="E35">
-        <v>0</v>
-      </c>
-      <c r="F35">
+      <c r="G35">
         <v>7.0110527342567499</v>
       </c>
-      <c r="G35">
-        <v>0</v>
-      </c>
       <c r="H35">
-        <v>67.2313001594338</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
@@ -2282,25 +2282,25 @@
         <v>33</v>
       </c>
       <c r="B36">
+        <v>30.045628011307301</v>
+      </c>
+      <c r="C36">
+        <v>46.849266108661297</v>
+      </c>
+      <c r="D36">
         <v>10.1881629360897</v>
       </c>
-      <c r="C36">
+      <c r="E36">
+        <v>2.6152102110700901</v>
+      </c>
+      <c r="F36">
         <v>5.84463569003311</v>
       </c>
-      <c r="D36">
-        <v>46.849266108661297</v>
-      </c>
-      <c r="E36">
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
         <v>4.4570970428384404</v>
-      </c>
-      <c r="F36">
-        <v>0</v>
-      </c>
-      <c r="G36">
-        <v>30.045628011307301</v>
-      </c>
-      <c r="H36">
-        <v>2.6152102110700901</v>
       </c>
     </row>
   </sheetData>
@@ -2313,36 +2313,36 @@
   <dimension ref="A1:H93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="32.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" t="s">
         <v>36</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>34</v>
       </c>
-      <c r="D1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" t="s">
         <v>28</v>
-      </c>
-      <c r="F1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H1" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -2350,25 +2350,25 @@
         <v>42217</v>
       </c>
       <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>10.443699000000001</v>
+      </c>
+      <c r="D2">
         <v>17.131513200000001</v>
       </c>
-      <c r="C2">
+      <c r="E2">
         <v>6.970960152</v>
       </c>
-      <c r="D2">
-        <v>10.443699000000001</v>
-      </c>
-      <c r="E2">
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
         <v>0.46104884559999998</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -2376,25 +2376,25 @@
         <v>42220</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>63.585869199999998</v>
       </c>
       <c r="C3">
+        <v>52.232075000000002</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
         <v>2.8686364200000001</v>
       </c>
-      <c r="D3">
-        <v>52.232075000000002</v>
-      </c>
-      <c r="E3">
+      <c r="F3">
+        <v>0.98199092399999999</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
         <v>1.0777530319999999</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>63.585869199999998</v>
-      </c>
-      <c r="H3">
-        <v>0.98199092399999999</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -2402,25 +2402,25 @@
         <v>42223</v>
       </c>
       <c r="B4">
+        <v>4.3576482199999997</v>
+      </c>
+      <c r="C4">
+        <v>17.815601999999998</v>
+      </c>
+      <c r="D4">
         <v>12.992898719999999</v>
       </c>
-      <c r="C4">
+      <c r="E4">
         <v>6.8350038120000001</v>
       </c>
-      <c r="D4">
-        <v>17.815601999999998</v>
-      </c>
-      <c r="E4">
+      <c r="F4">
+        <v>2.3504787390000002</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
         <v>2.9208631679999999</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>4.3576482199999997</v>
-      </c>
-      <c r="H4">
-        <v>2.3504787390000002</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -2428,25 +2428,25 @@
         <v>42226</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>35.191699900000003</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>49.18676</v>
       </c>
       <c r="D5">
-        <v>49.18676</v>
+        <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>7.2929162300000003</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
         <v>0.86477342599999996</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>35.191699900000003</v>
-      </c>
-      <c r="H5">
-        <v>7.2929162300000003</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -2454,25 +2454,25 @@
         <v>42229</v>
       </c>
       <c r="B6">
+        <v>49.642440000000001</v>
+      </c>
+      <c r="C6">
+        <v>24.326533000000001</v>
+      </c>
+      <c r="D6">
         <v>22.865151000000001</v>
       </c>
-      <c r="C6">
+      <c r="E6">
         <v>8.3504299320000008</v>
       </c>
-      <c r="D6">
-        <v>24.326533000000001</v>
-      </c>
-      <c r="E6">
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
         <v>13.519715420000001</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>49.642440000000001</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -2480,25 +2480,25 @@
         <v>42232</v>
       </c>
       <c r="B7">
+        <v>5.2224717800000002</v>
+      </c>
+      <c r="C7">
+        <v>44.397094000000003</v>
+      </c>
+      <c r="D7">
         <v>14.52073674</v>
       </c>
-      <c r="C7">
+      <c r="E7">
         <v>31.726534319999999</v>
       </c>
-      <c r="D7">
-        <v>44.397094000000003</v>
-      </c>
-      <c r="E7">
+      <c r="F7">
+        <v>2.8620176270000002</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
         <v>1.0432577000000001</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>5.2224717800000002</v>
-      </c>
-      <c r="H7">
-        <v>2.8620176270000002</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -2506,25 +2506,25 @@
         <v>42235</v>
       </c>
       <c r="B8">
+        <v>23.213066220000002</v>
+      </c>
+      <c r="C8">
+        <v>27.181049000000002</v>
+      </c>
+      <c r="D8">
         <v>3.8403412800000001</v>
       </c>
-      <c r="C8">
+      <c r="E8">
         <v>11.683774440000001</v>
       </c>
-      <c r="D8">
-        <v>27.181049000000002</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
       <c r="F8">
-        <v>0</v>
+        <v>0.23468021480000001</v>
       </c>
       <c r="G8">
-        <v>23.213066220000002</v>
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>0.23468021480000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -2532,25 +2532,25 @@
         <v>42238</v>
       </c>
       <c r="B9">
+        <v>39.681727960000003</v>
+      </c>
+      <c r="C9">
+        <v>26.705749000000001</v>
+      </c>
+      <c r="D9">
         <v>9.2337704400000007</v>
       </c>
-      <c r="C9">
+      <c r="E9">
         <v>21.739461120000001</v>
       </c>
-      <c r="D9">
-        <v>26.705749000000001</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
       <c r="F9">
-        <v>0</v>
+        <v>0.91107441099999997</v>
       </c>
       <c r="G9">
-        <v>39.681727960000003</v>
+        <v>0</v>
       </c>
       <c r="H9">
-        <v>0.91107441099999997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -2558,25 +2558,25 @@
         <v>42241</v>
       </c>
       <c r="B10">
+        <v>8.1304736599999998</v>
+      </c>
+      <c r="C10">
+        <v>54.117657999999999</v>
+      </c>
+      <c r="D10">
         <v>10.169344199999999</v>
       </c>
-      <c r="C10">
+      <c r="E10">
         <v>9.46950732</v>
       </c>
-      <c r="D10">
-        <v>54.117657999999999</v>
-      </c>
-      <c r="E10">
+      <c r="F10">
+        <v>7.78072784</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
         <v>7.47140468</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>8.1304736599999998</v>
-      </c>
-      <c r="H10">
-        <v>7.78072784</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -2584,25 +2584,25 @@
         <v>42244</v>
       </c>
       <c r="B11">
+        <v>15.394817379999999</v>
+      </c>
+      <c r="C11">
+        <v>22.678599999999999</v>
+      </c>
+      <c r="D11">
         <v>0.36058572</v>
       </c>
-      <c r="C11">
+      <c r="E11">
         <v>3.6826802999999999</v>
       </c>
-      <c r="D11">
-        <v>22.678599999999999</v>
-      </c>
-      <c r="E11">
+      <c r="F11">
+        <v>6.2293580500000001</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
         <v>3.3634886640000001</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>15.394817379999999</v>
-      </c>
-      <c r="H11">
-        <v>6.2293580500000001</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -2610,25 +2610,25 @@
         <v>42247</v>
       </c>
       <c r="B12">
+        <v>74.912183799999994</v>
+      </c>
+      <c r="C12">
+        <v>7.015428</v>
+      </c>
+      <c r="D12">
         <v>0.233465226</v>
       </c>
-      <c r="C12">
+      <c r="E12">
         <v>2.9059926479999998</v>
       </c>
-      <c r="D12">
-        <v>7.015428</v>
-      </c>
-      <c r="E12">
+      <c r="F12">
+        <v>5.6763532799999998</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
         <v>2.368679464</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>74.912183799999994</v>
-      </c>
-      <c r="H12">
-        <v>5.6763532799999998</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -2636,25 +2636,25 @@
         <v>42253</v>
       </c>
       <c r="B13">
+        <v>80.281405599999999</v>
+      </c>
+      <c r="C13">
+        <v>85.133020000000002</v>
+      </c>
+      <c r="D13">
         <v>4.0947594599999997</v>
       </c>
-      <c r="C13">
+      <c r="E13">
         <v>36.045795239999997</v>
       </c>
-      <c r="D13">
-        <v>85.133020000000002</v>
-      </c>
-      <c r="E13">
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
         <v>3.4183969639999998</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <v>80.281405599999999</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -2662,25 +2662,25 @@
         <v>42256</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>67.3700166</v>
       </c>
       <c r="C14">
+        <v>41.658687</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
         <v>7.1296182359999998</v>
       </c>
-      <c r="D14">
-        <v>41.658687</v>
-      </c>
-      <c r="E14">
+      <c r="F14">
+        <v>7.4301250899999998</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
         <v>3.648430442</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <v>67.3700166</v>
-      </c>
-      <c r="H14">
-        <v>7.4301250899999998</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -2688,25 +2688,25 @@
         <v>42259</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>53.722700199999998</v>
       </c>
       <c r="C15">
+        <v>7.5525169999999999</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
         <v>4.4122703040000003E-2</v>
       </c>
-      <c r="D15">
-        <v>7.5525169999999999</v>
-      </c>
-      <c r="E15">
+      <c r="F15">
+        <v>1.0311132119999999</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
         <v>14.62240328</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15">
-        <v>53.722700199999998</v>
-      </c>
-      <c r="H15">
-        <v>1.0311132119999999</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -2714,25 +2714,25 @@
         <v>42262</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>85.763846999999998</v>
       </c>
       <c r="C16">
+        <v>24.319064000000001</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
         <v>1.971663408</v>
       </c>
-      <c r="D16">
-        <v>24.319064000000001</v>
-      </c>
-      <c r="E16">
+      <c r="F16">
+        <v>2.6364189709999999</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
         <v>5.3974212919999998</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="G16">
-        <v>85.763846999999998</v>
-      </c>
-      <c r="H16">
-        <v>2.6364189709999999</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -2740,25 +2740,25 @@
         <v>42265</v>
       </c>
       <c r="B17">
+        <v>90.680190400000001</v>
+      </c>
+      <c r="C17">
+        <v>84.019459999999995</v>
+      </c>
+      <c r="D17">
         <v>6.2736304199999999</v>
       </c>
-      <c r="C17">
+      <c r="E17">
         <v>45.27812016</v>
       </c>
-      <c r="D17">
-        <v>84.019459999999995</v>
-      </c>
-      <c r="E17">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
         <v>5.7986394700000004</v>
-      </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-      <c r="G17">
-        <v>90.680190400000001</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -2766,25 +2766,25 @@
         <v>42268</v>
       </c>
       <c r="B18">
+        <v>95.979738600000005</v>
+      </c>
+      <c r="C18">
+        <v>34.112281000000003</v>
+      </c>
+      <c r="D18">
         <v>0.42688505999999998</v>
       </c>
-      <c r="C18">
+      <c r="E18">
         <v>10.353858839999999</v>
       </c>
-      <c r="D18">
-        <v>34.112281000000003</v>
-      </c>
-      <c r="E18">
+      <c r="F18">
+        <v>10.78226641</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
         <v>5.6510976380000004</v>
-      </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-      <c r="G18">
-        <v>95.979738600000005</v>
-      </c>
-      <c r="H18">
-        <v>10.78226641</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -2792,25 +2792,25 @@
         <v>42271</v>
       </c>
       <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>71.783879999999996</v>
+      </c>
+      <c r="D19">
         <v>2.5074144600000001</v>
       </c>
-      <c r="C19">
+      <c r="E19">
         <v>10.944273600000001</v>
       </c>
-      <c r="D19">
-        <v>71.783879999999996</v>
-      </c>
-      <c r="E19">
+      <c r="F19">
+        <v>11.933001490000001</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
         <v>11.575961599999999</v>
-      </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>11.933001490000001</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -2818,25 +2818,25 @@
         <v>42274</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>80.477362600000006</v>
       </c>
       <c r="C20">
+        <v>20.996717</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
         <v>15.144943319999999</v>
       </c>
-      <c r="D20">
-        <v>20.996717</v>
-      </c>
-      <c r="E20">
+      <c r="F20">
+        <v>6.4302439500000004</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
         <v>2.7735797280000001</v>
-      </c>
-      <c r="F20">
-        <v>0</v>
-      </c>
-      <c r="G20">
-        <v>80.477362600000006</v>
-      </c>
-      <c r="H20">
-        <v>6.4302439500000004</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -2844,25 +2844,25 @@
         <v>42277</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>105.3290648</v>
       </c>
       <c r="C21">
+        <v>53.355141000000003</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
         <v>2.9651188319999999</v>
       </c>
-      <c r="D21">
-        <v>53.355141000000003</v>
-      </c>
-      <c r="E21">
+      <c r="F21">
+        <v>8.9447289699999999</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
         <v>13.076573140000001</v>
-      </c>
-      <c r="F21">
-        <v>0</v>
-      </c>
-      <c r="G21">
-        <v>105.3290648</v>
-      </c>
-      <c r="H21">
-        <v>8.9447289699999999</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -2870,25 +2870,25 @@
         <v>42280</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>61.447760600000002</v>
       </c>
       <c r="C22">
+        <v>23.350809999999999</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
         <v>9.4085175599999999</v>
       </c>
-      <c r="D22">
-        <v>23.350809999999999</v>
-      </c>
-      <c r="E22">
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
         <v>25.91865554</v>
-      </c>
-      <c r="F22">
-        <v>0</v>
-      </c>
-      <c r="G22">
-        <v>61.447760600000002</v>
-      </c>
-      <c r="H22">
-        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -2896,25 +2896,25 @@
         <v>42283</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>110.04074199999999</v>
       </c>
       <c r="C23">
+        <v>52.124792999999997</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
         <v>4.4693634959999997</v>
       </c>
-      <c r="D23">
-        <v>52.124792999999997</v>
-      </c>
-      <c r="E23">
+      <c r="F23">
+        <v>8.2655072100000009</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
         <v>0.74707586999999998</v>
-      </c>
-      <c r="F23">
-        <v>0</v>
-      </c>
-      <c r="G23">
-        <v>110.04074199999999</v>
-      </c>
-      <c r="H23">
-        <v>8.2655072100000009</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -2922,25 +2922,25 @@
         <v>42286</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>83.072704200000004</v>
       </c>
       <c r="C24">
+        <v>56.912421999999999</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
         <v>6.989850036</v>
       </c>
-      <c r="D24">
-        <v>56.912421999999999</v>
-      </c>
-      <c r="E24">
+      <c r="F24">
+        <v>7.5025198199999998</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
         <v>0.11076619059999999</v>
-      </c>
-      <c r="F24">
-        <v>0</v>
-      </c>
-      <c r="G24">
-        <v>83.072704200000004</v>
-      </c>
-      <c r="H24">
-        <v>7.5025198199999998</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -2948,25 +2948,25 @@
         <v>42289</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>99.284880000000001</v>
       </c>
       <c r="C25">
+        <v>83.374409999999997</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
         <v>19.3049532</v>
       </c>
-      <c r="D25">
-        <v>83.374409999999997</v>
-      </c>
-      <c r="E25">
+      <c r="F25">
+        <v>13.3229045</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
         <v>0.19493738460000001</v>
-      </c>
-      <c r="F25">
-        <v>0</v>
-      </c>
-      <c r="G25">
-        <v>99.284880000000001</v>
-      </c>
-      <c r="H25">
-        <v>13.3229045</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -2974,25 +2974,25 @@
         <v>42292</v>
       </c>
       <c r="B26">
-        <v>0</v>
+        <v>61.504370399999999</v>
       </c>
       <c r="C26">
+        <v>28.871079999999999</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
         <v>2.4437410919999998</v>
       </c>
-      <c r="D26">
-        <v>28.871079999999999</v>
-      </c>
-      <c r="E26">
+      <c r="F26">
+        <v>1.3004519299999999</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
         <v>3.2059987400000001</v>
-      </c>
-      <c r="F26">
-        <v>0</v>
-      </c>
-      <c r="G26">
-        <v>61.504370399999999</v>
-      </c>
-      <c r="H26">
-        <v>1.3004519299999999</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -3000,25 +3000,25 @@
         <v>42295</v>
       </c>
       <c r="B27">
-        <v>0</v>
+        <v>110.1147702</v>
       </c>
       <c r="C27">
+        <v>108.93876</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
         <v>3.144022128</v>
       </c>
-      <c r="D27">
-        <v>108.93876</v>
-      </c>
-      <c r="E27">
+      <c r="F27">
+        <v>1.328348538</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
         <v>0.84552322199999996</v>
-      </c>
-      <c r="F27">
-        <v>0</v>
-      </c>
-      <c r="G27">
-        <v>110.1147702</v>
-      </c>
-      <c r="H27">
-        <v>1.328348538</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -3026,25 +3026,25 @@
         <v>42298</v>
       </c>
       <c r="B28">
-        <v>0</v>
+        <v>90.506006400000004</v>
       </c>
       <c r="C28">
+        <v>100.60064</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
         <v>10.93410864</v>
       </c>
-      <c r="D28">
-        <v>100.60064</v>
-      </c>
-      <c r="E28">
+      <c r="F28">
+        <v>7.2895049600000004</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
         <v>1.799764878</v>
-      </c>
-      <c r="F28">
-        <v>0</v>
-      </c>
-      <c r="G28">
-        <v>90.506006400000004</v>
-      </c>
-      <c r="H28">
-        <v>7.2895049600000004</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -3052,25 +3052,25 @@
         <v>42301</v>
       </c>
       <c r="B29">
+        <v>80.150767599999995</v>
+      </c>
+      <c r="C29">
+        <v>49.430520999999999</v>
+      </c>
+      <c r="D29">
         <v>9.5717641800000006</v>
       </c>
-      <c r="C29">
+      <c r="E29">
         <v>7.9786465199999999</v>
       </c>
-      <c r="D29">
-        <v>49.430520999999999</v>
-      </c>
-      <c r="E29">
+      <c r="F29">
+        <v>2.887867473</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
         <v>1.94020093</v>
-      </c>
-      <c r="F29">
-        <v>0</v>
-      </c>
-      <c r="G29">
-        <v>80.150767599999995</v>
-      </c>
-      <c r="H29">
-        <v>2.887867473</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -3078,25 +3078,25 @@
         <v>42304</v>
       </c>
       <c r="B30">
-        <v>0</v>
+        <v>113.284919</v>
       </c>
       <c r="C30">
+        <v>43.886485999999998</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
         <v>4.2252350400000003</v>
       </c>
-      <c r="D30">
-        <v>43.886485999999998</v>
-      </c>
-      <c r="E30">
+      <c r="F30">
+        <v>2.4360637129999998</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
         <v>0.55595622720000004</v>
-      </c>
-      <c r="F30">
-        <v>0</v>
-      </c>
-      <c r="G30">
-        <v>113.284919</v>
-      </c>
-      <c r="H30">
-        <v>2.4360637129999998</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -3104,25 +3104,25 @@
         <v>42325</v>
       </c>
       <c r="B31">
+        <v>25.354658499999999</v>
+      </c>
+      <c r="C31">
+        <v>194.43164999999999</v>
+      </c>
+      <c r="D31">
         <v>32.514732000000002</v>
       </c>
-      <c r="C31">
+      <c r="E31">
         <v>5.5282982040000004</v>
       </c>
-      <c r="D31">
-        <v>194.43164999999999</v>
-      </c>
-      <c r="E31">
+      <c r="F31">
+        <v>2.5639484349999999</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
         <v>1.1203877120000001</v>
-      </c>
-      <c r="F31">
-        <v>0</v>
-      </c>
-      <c r="G31">
-        <v>25.354658499999999</v>
-      </c>
-      <c r="H31">
-        <v>2.5639484349999999</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -3130,25 +3130,25 @@
         <v>42328</v>
       </c>
       <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>184.66084000000001</v>
+      </c>
+      <c r="D32">
         <v>48.021985200000003</v>
       </c>
-      <c r="C32">
+      <c r="E32">
         <v>9.8922002399999993</v>
       </c>
-      <c r="D32">
-        <v>184.66084000000001</v>
-      </c>
-      <c r="E32">
+      <c r="F32">
+        <v>2.7691931799999998</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
         <v>9.0475958799999994</v>
-      </c>
-      <c r="F32">
-        <v>0</v>
-      </c>
-      <c r="G32">
-        <v>0</v>
-      </c>
-      <c r="H32">
-        <v>2.7691931799999998</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -3156,25 +3156,25 @@
         <v>42331</v>
       </c>
       <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>180.55288999999999</v>
+      </c>
+      <c r="D33">
         <v>56.708823000000002</v>
       </c>
-      <c r="C33">
+      <c r="E33">
         <v>7.6422710519999999</v>
       </c>
-      <c r="D33">
-        <v>180.55288999999999</v>
-      </c>
-      <c r="E33">
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
         <v>0.56320412279999998</v>
-      </c>
-      <c r="F33">
-        <v>0</v>
-      </c>
-      <c r="G33">
-        <v>0</v>
-      </c>
-      <c r="H33">
-        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
@@ -3182,25 +3182,25 @@
         <v>42334</v>
       </c>
       <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <v>50.644573000000001</v>
+      </c>
+      <c r="D34">
         <v>113.39549700000001</v>
       </c>
-      <c r="C34">
+      <c r="E34">
         <v>12.47071176</v>
       </c>
-      <c r="D34">
-        <v>50.644573000000001</v>
-      </c>
-      <c r="E34">
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
         <v>0.38780117339999998</v>
-      </c>
-      <c r="F34">
-        <v>0</v>
-      </c>
-      <c r="G34">
-        <v>0</v>
-      </c>
-      <c r="H34">
-        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
@@ -3208,25 +3208,25 @@
         <v>42340</v>
       </c>
       <c r="B35">
+        <v>19.512962600000002</v>
+      </c>
+      <c r="C35">
+        <v>190.27617000000001</v>
+      </c>
+      <c r="D35">
         <v>56.022204000000002</v>
       </c>
-      <c r="C35">
+      <c r="E35">
         <v>5.7878435159999997</v>
       </c>
-      <c r="D35">
-        <v>190.27617000000001</v>
-      </c>
-      <c r="E35">
+      <c r="F35">
+        <v>2.7903051510000001</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
         <v>24.740388020000001</v>
-      </c>
-      <c r="F35">
-        <v>0</v>
-      </c>
-      <c r="G35">
-        <v>19.512962600000002</v>
-      </c>
-      <c r="H35">
-        <v>2.7903051510000001</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
@@ -3234,25 +3234,25 @@
         <v>42343</v>
       </c>
       <c r="B36">
+        <v>0.52625341000000003</v>
+      </c>
+      <c r="C36">
+        <v>309.04685000000001</v>
+      </c>
+      <c r="D36">
         <v>29.867188200000001</v>
       </c>
-      <c r="C36">
+      <c r="E36">
         <v>4.2498003600000001</v>
       </c>
-      <c r="D36">
-        <v>309.04685000000001</v>
-      </c>
-      <c r="E36">
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
         <v>5.08644652E-2</v>
-      </c>
-      <c r="F36">
-        <v>0</v>
-      </c>
-      <c r="G36">
-        <v>0.52625341000000003</v>
-      </c>
-      <c r="H36">
-        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
@@ -3260,25 +3260,25 @@
         <v>42346</v>
       </c>
       <c r="B37">
+        <v>147.13757939999999</v>
+      </c>
+      <c r="C37">
+        <v>117.9423</v>
+      </c>
+      <c r="D37">
         <v>5.6708822999999997</v>
       </c>
-      <c r="C37">
+      <c r="E37">
         <v>2.9073479760000001</v>
       </c>
-      <c r="D37">
-        <v>117.9423</v>
-      </c>
-      <c r="E37">
-        <v>0</v>
-      </c>
       <c r="F37">
-        <v>0</v>
+        <v>6.7672016199999998</v>
       </c>
       <c r="G37">
-        <v>147.13757939999999</v>
+        <v>0</v>
       </c>
       <c r="H37">
-        <v>6.7672016199999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
@@ -3286,25 +3286,25 @@
         <v>42349</v>
       </c>
       <c r="B38">
+        <v>2.926770206</v>
+      </c>
+      <c r="C38">
+        <v>107.24805000000001</v>
+      </c>
+      <c r="D38">
         <v>12.06072114</v>
       </c>
-      <c r="C38">
+      <c r="E38">
         <v>1.626224184</v>
       </c>
-      <c r="D38">
-        <v>107.24805000000001</v>
-      </c>
-      <c r="E38">
+      <c r="F38">
+        <v>2.7271966559999998</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
         <v>0.30816475900000001</v>
-      </c>
-      <c r="F38">
-        <v>0</v>
-      </c>
-      <c r="G38">
-        <v>2.926770206</v>
-      </c>
-      <c r="H38">
-        <v>2.7271966559999998</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
@@ -3312,25 +3312,25 @@
         <v>42352</v>
       </c>
       <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39">
+        <v>156.34654</v>
+      </c>
+      <c r="D39">
         <v>44.290616999999997</v>
       </c>
-      <c r="C39">
+      <c r="E39">
         <v>8.2170148320000003</v>
       </c>
-      <c r="D39">
-        <v>156.34654</v>
-      </c>
-      <c r="E39">
+      <c r="F39">
+        <v>1.05105019</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
         <v>1.8492469460000001</v>
-      </c>
-      <c r="F39">
-        <v>0</v>
-      </c>
-      <c r="G39">
-        <v>0</v>
-      </c>
-      <c r="H39">
-        <v>1.05105019</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
@@ -3338,25 +3338,25 @@
         <v>42355</v>
       </c>
       <c r="B40">
+        <v>8.8285160400000002</v>
+      </c>
+      <c r="C40">
+        <v>243.34681</v>
+      </c>
+      <c r="D40">
         <v>20.267811600000002</v>
       </c>
-      <c r="C40">
+      <c r="E40">
         <v>3.5492651999999998</v>
       </c>
-      <c r="D40">
-        <v>243.34681</v>
-      </c>
-      <c r="E40">
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
         <v>0.37061810540000001</v>
-      </c>
-      <c r="F40">
-        <v>0</v>
-      </c>
-      <c r="G40">
-        <v>8.8285160400000002</v>
-      </c>
-      <c r="H40">
-        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
@@ -3364,25 +3364,25 @@
         <v>42361</v>
       </c>
       <c r="B41">
+        <v>4.7700288400000002</v>
+      </c>
+      <c r="C41">
+        <v>139.04562000000001</v>
+      </c>
+      <c r="D41">
         <v>51.511190999999997</v>
       </c>
-      <c r="C41">
+      <c r="E41">
         <v>1.943963892</v>
       </c>
-      <c r="D41">
-        <v>139.04562000000001</v>
-      </c>
-      <c r="E41">
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
         <v>1.914167936E-2</v>
-      </c>
-      <c r="F41">
-        <v>0</v>
-      </c>
-      <c r="G41">
-        <v>4.7700288400000002</v>
-      </c>
-      <c r="H41">
-        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
@@ -3390,25 +3390,25 @@
         <v>42365</v>
       </c>
       <c r="B42">
+        <v>93.628254600000005</v>
+      </c>
+      <c r="C42">
+        <v>132.95499000000001</v>
+      </c>
+      <c r="D42">
         <v>30.4785006</v>
       </c>
-      <c r="C42">
+      <c r="E42">
         <v>2.3324347799999998</v>
       </c>
-      <c r="D42">
-        <v>132.95499000000001</v>
-      </c>
-      <c r="E42">
+      <c r="F42">
+        <v>0.96171281900000005</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
         <v>4.3398228359999997</v>
-      </c>
-      <c r="F42">
-        <v>0</v>
-      </c>
-      <c r="G42">
-        <v>93.628254600000005</v>
-      </c>
-      <c r="H42">
-        <v>0.96171281900000005</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
@@ -3416,25 +3416,25 @@
         <v>42367</v>
       </c>
       <c r="B43">
+        <v>4.0013548480000001</v>
+      </c>
+      <c r="C43">
+        <v>209.94001</v>
+      </c>
+      <c r="D43">
         <v>43.911130800000002</v>
       </c>
-      <c r="C43">
+      <c r="E43">
         <v>2.5615699200000002</v>
       </c>
-      <c r="D43">
-        <v>209.94001</v>
-      </c>
-      <c r="E43">
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
         <v>1.865331848E-2</v>
-      </c>
-      <c r="F43">
-        <v>0</v>
-      </c>
-      <c r="G43">
-        <v>4.0013548480000001</v>
-      </c>
-      <c r="H43">
-        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
@@ -3442,25 +3442,25 @@
         <v>42370</v>
       </c>
       <c r="B44">
+        <v>0</v>
+      </c>
+      <c r="C44">
+        <v>141.31348</v>
+      </c>
+      <c r="D44">
         <v>31.492924800000001</v>
       </c>
-      <c r="C44">
+      <c r="E44">
         <v>19.572630480000001</v>
       </c>
-      <c r="D44">
-        <v>141.31348</v>
-      </c>
-      <c r="E44">
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
         <v>5.7759009739999998</v>
-      </c>
-      <c r="F44">
-        <v>0</v>
-      </c>
-      <c r="G44">
-        <v>0</v>
-      </c>
-      <c r="H44">
-        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
@@ -3468,25 +3468,25 @@
         <v>42373</v>
       </c>
       <c r="B45">
+        <v>0</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
         <v>35.332084799999997</v>
       </c>
-      <c r="C45">
-        <v>0</v>
-      </c>
-      <c r="D45">
-        <v>0</v>
-      </c>
       <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
         <v>206.75881860000001</v>
-      </c>
-      <c r="F45">
-        <v>0</v>
-      </c>
-      <c r="G45">
-        <v>0</v>
-      </c>
-      <c r="H45">
-        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
@@ -3494,25 +3494,25 @@
         <v>42376</v>
       </c>
       <c r="B46">
+        <v>24.729773399999999</v>
+      </c>
+      <c r="C46">
+        <v>195.4162</v>
+      </c>
+      <c r="D46">
         <v>16.969087200000001</v>
       </c>
-      <c r="C46">
+      <c r="E46">
         <v>0.83798236079999999</v>
       </c>
-      <c r="D46">
-        <v>195.4162</v>
-      </c>
-      <c r="E46">
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
         <v>2.7693162600000001</v>
-      </c>
-      <c r="F46">
-        <v>0</v>
-      </c>
-      <c r="G46">
-        <v>24.729773399999999</v>
-      </c>
-      <c r="H46">
-        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
@@ -3520,25 +3520,25 @@
         <v>42379</v>
       </c>
       <c r="B47">
+        <v>17.06611286</v>
+      </c>
+      <c r="C47">
+        <v>121.65643</v>
+      </c>
+      <c r="D47">
         <v>20.304726599999999</v>
       </c>
-      <c r="C47">
+      <c r="E47">
         <v>4.3718645880000002</v>
       </c>
-      <c r="D47">
-        <v>121.65643</v>
-      </c>
-      <c r="E47">
-        <v>0</v>
-      </c>
       <c r="F47">
-        <v>0</v>
+        <v>3.1373071160000001</v>
       </c>
       <c r="G47">
-        <v>17.06611286</v>
+        <v>0</v>
       </c>
       <c r="H47">
-        <v>3.1373071160000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
@@ -3546,25 +3546,25 @@
         <v>42382</v>
       </c>
       <c r="B48">
+        <v>88.812066999999999</v>
+      </c>
+      <c r="C48">
+        <v>105.53018</v>
+      </c>
+      <c r="D48">
         <v>16.340055599999999</v>
       </c>
-      <c r="C48">
+      <c r="E48">
         <v>0.77207953679999997</v>
       </c>
-      <c r="D48">
-        <v>105.53018</v>
-      </c>
-      <c r="E48">
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
         <v>1.9950446319999999</v>
-      </c>
-      <c r="F48">
-        <v>0</v>
-      </c>
-      <c r="G48">
-        <v>88.812066999999999</v>
-      </c>
-      <c r="H48">
-        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
@@ -3572,25 +3572,25 @@
         <v>42385</v>
       </c>
       <c r="B49">
+        <v>4.4821897799999997</v>
+      </c>
+      <c r="C49">
+        <v>89.655159999999995</v>
+      </c>
+      <c r="D49">
         <v>6.4769582400000001</v>
       </c>
-      <c r="C49">
+      <c r="E49">
         <v>2.305158804</v>
       </c>
-      <c r="D49">
-        <v>89.655159999999995</v>
-      </c>
-      <c r="E49">
+      <c r="F49">
+        <v>9.0952038799999996E-2</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
         <v>106.32830800000001</v>
-      </c>
-      <c r="F49">
-        <v>0</v>
-      </c>
-      <c r="G49">
-        <v>4.4821897799999997</v>
-      </c>
-      <c r="H49">
-        <v>9.0952038799999996E-2</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
@@ -3598,25 +3598,25 @@
         <v>42388</v>
       </c>
       <c r="B50">
+        <v>76.780307199999996</v>
+      </c>
+      <c r="C50">
+        <v>53.485509</v>
+      </c>
+      <c r="D50">
         <v>6.08565924</v>
       </c>
-      <c r="C50">
-        <v>0</v>
-      </c>
-      <c r="D50">
-        <v>53.485509</v>
-      </c>
       <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>2.048619247</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50">
         <v>3.5341565799999999</v>
-      </c>
-      <c r="F50">
-        <v>0</v>
-      </c>
-      <c r="G50">
-        <v>76.780307199999996</v>
-      </c>
-      <c r="H50">
-        <v>2.048619247</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
@@ -3624,25 +3624,25 @@
         <v>42391</v>
       </c>
       <c r="B51">
+        <v>53.653026599999997</v>
+      </c>
+      <c r="C51">
+        <v>65.511278000000004</v>
+      </c>
+      <c r="D51">
         <v>1.1409245219999999</v>
       </c>
-      <c r="C51">
-        <v>0</v>
-      </c>
-      <c r="D51">
-        <v>65.511278000000004</v>
-      </c>
       <c r="E51">
         <v>0</v>
       </c>
       <c r="F51">
-        <v>0</v>
+        <v>0.60697864199999996</v>
       </c>
       <c r="G51">
-        <v>53.653026599999997</v>
+        <v>0</v>
       </c>
       <c r="H51">
-        <v>0.60697864199999996</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
@@ -3650,25 +3650,25 @@
         <v>42397</v>
       </c>
       <c r="B52">
+        <v>3.5963335019999998</v>
+      </c>
+      <c r="C52">
+        <v>214.12264999999999</v>
+      </c>
+      <c r="D52">
         <v>0.79374633000000006</v>
       </c>
-      <c r="C52">
+      <c r="E52">
         <v>5.4349499879999996</v>
       </c>
-      <c r="D52">
-        <v>214.12264999999999</v>
-      </c>
-      <c r="E52">
+      <c r="F52">
+        <v>0.41424188699999998</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
         <v>0.82168655999999995</v>
-      </c>
-      <c r="F52">
-        <v>0</v>
-      </c>
-      <c r="G52">
-        <v>3.5963335019999998</v>
-      </c>
-      <c r="H52">
-        <v>0.41424188699999998</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
@@ -3676,25 +3676,25 @@
         <v>42400</v>
       </c>
       <c r="B53">
-        <v>0</v>
+        <v>6.7117449799999997</v>
       </c>
       <c r="C53">
-        <v>0</v>
+        <v>87.489149999999995</v>
       </c>
       <c r="D53">
-        <v>87.489149999999995</v>
+        <v>0</v>
       </c>
       <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>11.921630589999999</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="H53">
         <v>0.1957254802</v>
-      </c>
-      <c r="F53">
-        <v>0</v>
-      </c>
-      <c r="G53">
-        <v>6.7117449799999997</v>
-      </c>
-      <c r="H53">
-        <v>11.921630589999999</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
@@ -3702,25 +3702,25 @@
         <v>42403</v>
       </c>
       <c r="B54">
+        <v>82.510960800000007</v>
+      </c>
+      <c r="C54">
+        <v>84.888580000000005</v>
+      </c>
+      <c r="D54">
         <v>17.2865562</v>
       </c>
-      <c r="C54">
-        <v>0</v>
-      </c>
-      <c r="D54">
-        <v>84.888580000000005</v>
-      </c>
       <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="H54">
         <v>4.2615300600000001</v>
-      </c>
-      <c r="F54">
-        <v>0</v>
-      </c>
-      <c r="G54">
-        <v>82.510960800000007</v>
-      </c>
-      <c r="H54">
-        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
@@ -3728,25 +3728,25 @@
         <v>42406</v>
       </c>
       <c r="B55">
+        <v>73.0005144</v>
+      </c>
+      <c r="C55">
+        <v>106.72521999999999</v>
+      </c>
+      <c r="D55">
         <v>31.444196999999999</v>
       </c>
-      <c r="C55">
+      <c r="E55">
         <v>13.323721320000001</v>
       </c>
-      <c r="D55">
-        <v>106.72521999999999</v>
-      </c>
-      <c r="E55">
+      <c r="F55">
+        <v>0.80790244499999997</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+      <c r="H55">
         <v>13.24323598</v>
-      </c>
-      <c r="F55">
-        <v>0</v>
-      </c>
-      <c r="G55">
-        <v>73.0005144</v>
-      </c>
-      <c r="H55">
-        <v>0.80790244499999997</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
@@ -3754,25 +3754,25 @@
         <v>42409</v>
       </c>
       <c r="B56">
-        <v>0</v>
+        <v>162.82284859999999</v>
       </c>
       <c r="C56">
+        <v>102.72591</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+      <c r="E56">
         <v>19.257516720000002</v>
       </c>
-      <c r="D56">
-        <v>102.72591</v>
-      </c>
-      <c r="E56">
+      <c r="F56">
+        <v>0</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+      <c r="H56">
         <v>34.746618220000002</v>
-      </c>
-      <c r="F56">
-        <v>0</v>
-      </c>
-      <c r="G56">
-        <v>162.82284859999999</v>
-      </c>
-      <c r="H56">
-        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
@@ -3780,25 +3780,25 @@
         <v>42412</v>
       </c>
       <c r="B57">
+        <v>0</v>
+      </c>
+      <c r="C57">
+        <v>142.66469000000001</v>
+      </c>
+      <c r="D57">
         <v>41.573672999999999</v>
       </c>
-      <c r="C57">
+      <c r="E57">
         <v>9.3043267200000006</v>
       </c>
-      <c r="D57">
-        <v>142.66469000000001</v>
-      </c>
-      <c r="E57">
-        <v>0</v>
-      </c>
       <c r="F57">
-        <v>0</v>
+        <v>5.9610048100000004</v>
       </c>
       <c r="G57">
         <v>0</v>
       </c>
       <c r="H57">
-        <v>5.9610048100000004</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
@@ -3806,25 +3806,25 @@
         <v>42415</v>
       </c>
       <c r="B58">
+        <v>68.162553799999998</v>
+      </c>
+      <c r="C58">
+        <v>30.119761</v>
+      </c>
+      <c r="D58">
         <v>12.488049180000001</v>
       </c>
-      <c r="C58">
+      <c r="E58">
         <v>13.595634</v>
       </c>
-      <c r="D58">
-        <v>30.119761</v>
-      </c>
-      <c r="E58">
+      <c r="F58">
+        <v>2.8159275789999998</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+      <c r="H58">
         <v>10.112170920000001</v>
-      </c>
-      <c r="F58">
-        <v>0</v>
-      </c>
-      <c r="G58">
-        <v>68.162553799999998</v>
-      </c>
-      <c r="H58">
-        <v>2.8159275789999998</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
@@ -3832,25 +3832,25 @@
         <v>42418</v>
       </c>
       <c r="B59">
+        <v>5.3143538399999999</v>
+      </c>
+      <c r="C59">
+        <v>103.02467</v>
+      </c>
+      <c r="D59">
         <v>22.953747</v>
       </c>
-      <c r="C59">
+      <c r="E59">
         <v>4.800571776</v>
       </c>
-      <c r="D59">
-        <v>103.02467</v>
-      </c>
-      <c r="E59">
+      <c r="F59">
+        <v>1.2442417809999999</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
+      </c>
+      <c r="H59">
         <v>0.33058026499999998</v>
-      </c>
-      <c r="F59">
-        <v>0</v>
-      </c>
-      <c r="G59">
-        <v>5.3143538399999999</v>
-      </c>
-      <c r="H59">
-        <v>1.2442417809999999</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
@@ -3858,25 +3858,25 @@
         <v>42421</v>
       </c>
       <c r="B60">
+        <v>74.084809800000002</v>
+      </c>
+      <c r="C60">
+        <v>93.932860000000005</v>
+      </c>
+      <c r="D60">
         <v>16.5054348</v>
       </c>
-      <c r="C60">
+      <c r="E60">
         <v>5.638926852</v>
       </c>
-      <c r="D60">
-        <v>93.932860000000005</v>
-      </c>
-      <c r="E60">
+      <c r="F60">
+        <v>0</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+      <c r="H60">
         <v>8.8783491199999993</v>
-      </c>
-      <c r="F60">
-        <v>0</v>
-      </c>
-      <c r="G60">
-        <v>74.084809800000002</v>
-      </c>
-      <c r="H60">
-        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
@@ -3884,25 +3884,25 @@
         <v>42424</v>
       </c>
       <c r="B61">
+        <v>70.670803399999997</v>
+      </c>
+      <c r="C61">
+        <v>65.604301000000007</v>
+      </c>
+      <c r="D61">
         <v>31.571184599999999</v>
       </c>
-      <c r="C61">
+      <c r="E61">
         <v>9.1543935600000008</v>
       </c>
-      <c r="D61">
-        <v>65.604301000000007</v>
-      </c>
-      <c r="E61">
+      <c r="F61">
+        <v>3.5036396110000001</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
+      </c>
+      <c r="H61">
         <v>7.7155851200000001</v>
-      </c>
-      <c r="F61">
-        <v>0</v>
-      </c>
-      <c r="G61">
-        <v>70.670803399999997</v>
-      </c>
-      <c r="H61">
-        <v>3.5036396110000001</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
@@ -3910,25 +3910,25 @@
         <v>42427</v>
       </c>
       <c r="B62">
+        <v>50.831245799999998</v>
+      </c>
+      <c r="C62">
+        <v>58.956212000000001</v>
+      </c>
+      <c r="D62">
         <v>12.77288532</v>
       </c>
-      <c r="C62">
+      <c r="E62">
         <v>3.3299561880000002</v>
       </c>
-      <c r="D62">
-        <v>58.956212000000001</v>
-      </c>
-      <c r="E62">
+      <c r="F62">
+        <v>1.2126685820000001</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
         <v>0.81574354400000004</v>
-      </c>
-      <c r="F62">
-        <v>0</v>
-      </c>
-      <c r="G62">
-        <v>50.831245799999998</v>
-      </c>
-      <c r="H62">
-        <v>1.2126685820000001</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
@@ -3936,25 +3936,25 @@
         <v>42430</v>
       </c>
       <c r="B63">
+        <v>76.188081600000004</v>
+      </c>
+      <c r="C63">
+        <v>57.852837000000001</v>
+      </c>
+      <c r="D63">
         <v>17.404684199999998</v>
       </c>
-      <c r="C63">
+      <c r="E63">
         <v>9.7541262</v>
       </c>
-      <c r="D63">
-        <v>57.852837000000001</v>
-      </c>
-      <c r="E63">
-        <v>0</v>
-      </c>
       <c r="F63">
-        <v>0</v>
+        <v>4.7117219300000004</v>
       </c>
       <c r="G63">
-        <v>76.188081600000004</v>
+        <v>0</v>
       </c>
       <c r="H63">
-        <v>4.7117219300000004</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
@@ -3962,25 +3962,25 @@
         <v>42439</v>
       </c>
       <c r="B64">
+        <v>40.451621240000001</v>
+      </c>
+      <c r="C64">
+        <v>16.923396</v>
+      </c>
+      <c r="D64">
         <v>14.921042999999999</v>
       </c>
-      <c r="C64">
+      <c r="E64">
         <v>3.2562602279999999</v>
       </c>
-      <c r="D64">
-        <v>16.923396</v>
-      </c>
-      <c r="E64">
-        <v>0</v>
-      </c>
       <c r="F64">
-        <v>0</v>
+        <v>1.9266094899999999</v>
       </c>
       <c r="G64">
-        <v>40.451621240000001</v>
+        <v>0</v>
       </c>
       <c r="H64">
-        <v>1.9266094899999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
@@ -3988,25 +3988,25 @@
         <v>42442</v>
       </c>
       <c r="B65">
+        <v>65.236262600000003</v>
+      </c>
+      <c r="C65">
+        <v>19.329093</v>
+      </c>
+      <c r="D65">
         <v>1.82980272</v>
       </c>
-      <c r="C65">
+      <c r="E65">
         <v>3.321908928</v>
       </c>
-      <c r="D65">
-        <v>19.329093</v>
-      </c>
-      <c r="E65">
-        <v>0</v>
-      </c>
       <c r="F65">
-        <v>0</v>
+        <v>0.32535935199999999</v>
       </c>
       <c r="G65">
-        <v>65.236262600000003</v>
+        <v>0</v>
       </c>
       <c r="H65">
-        <v>0.32535935199999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
@@ -4014,25 +4014,25 @@
         <v>42445</v>
       </c>
       <c r="B66">
-        <v>0</v>
+        <v>79.741435199999998</v>
       </c>
       <c r="C66">
+        <v>24.224682999999999</v>
+      </c>
+      <c r="D66">
+        <v>0</v>
+      </c>
+      <c r="E66">
         <v>7.863528348</v>
       </c>
-      <c r="D66">
-        <v>24.224682999999999</v>
-      </c>
-      <c r="E66">
-        <v>0</v>
-      </c>
       <c r="F66">
-        <v>0</v>
+        <v>1.1178352760000001</v>
       </c>
       <c r="G66">
-        <v>79.741435199999998</v>
+        <v>0</v>
       </c>
       <c r="H66">
-        <v>1.1178352760000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
@@ -4040,25 +4040,25 @@
         <v>42448</v>
       </c>
       <c r="B67">
+        <v>68.040625000000006</v>
+      </c>
+      <c r="C67">
+        <v>7.9986199999999998</v>
+      </c>
+      <c r="D67">
         <v>11.80718892</v>
       </c>
-      <c r="C67">
+      <c r="E67">
         <v>3.358926324</v>
       </c>
-      <c r="D67">
-        <v>7.9986199999999998</v>
-      </c>
-      <c r="E67">
-        <v>0</v>
-      </c>
       <c r="F67">
-        <v>0</v>
+        <v>1.9640576540000001</v>
       </c>
       <c r="G67">
-        <v>68.040625000000006</v>
+        <v>0</v>
       </c>
       <c r="H67">
-        <v>1.9640576540000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
@@ -4066,25 +4066,25 @@
         <v>42451</v>
       </c>
       <c r="B68">
+        <v>70.1830882</v>
+      </c>
+      <c r="C68">
+        <v>26.521061</v>
+      </c>
+      <c r="D68">
         <v>20.369696999999999</v>
       </c>
-      <c r="C68">
+      <c r="E68">
         <v>5.5585389599999999</v>
       </c>
-      <c r="D68">
-        <v>26.521061</v>
-      </c>
-      <c r="E68">
-        <v>0</v>
-      </c>
       <c r="F68">
-        <v>0</v>
+        <v>3.121160438</v>
       </c>
       <c r="G68">
-        <v>70.1830882</v>
+        <v>0</v>
       </c>
       <c r="H68">
-        <v>3.121160438</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
@@ -4092,25 +4092,25 @@
         <v>42454</v>
       </c>
       <c r="B69">
+        <v>0.75961642399999996</v>
+      </c>
+      <c r="C69">
+        <v>78.709680000000006</v>
+      </c>
+      <c r="D69">
         <v>0.55492104600000003</v>
       </c>
-      <c r="C69">
+      <c r="E69">
         <v>5.2391898000000001</v>
       </c>
-      <c r="D69">
-        <v>78.709680000000006</v>
-      </c>
-      <c r="E69">
-        <v>0</v>
-      </c>
       <c r="F69">
-        <v>0</v>
+        <v>1.5684640430000001</v>
       </c>
       <c r="G69">
-        <v>0.75961642399999996</v>
+        <v>0</v>
       </c>
       <c r="H69">
-        <v>1.5684640430000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
@@ -4118,25 +4118,25 @@
         <v>42463</v>
       </c>
       <c r="B70">
+        <v>61.404214600000003</v>
+      </c>
+      <c r="C70">
+        <v>15.062257000000001</v>
+      </c>
+      <c r="D70">
         <v>26.856400799999999</v>
       </c>
-      <c r="C70">
+      <c r="E70">
         <v>15.65149716</v>
       </c>
-      <c r="D70">
-        <v>15.062257000000001</v>
-      </c>
-      <c r="E70">
+      <c r="F70">
+        <v>5.3852582399999998</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
         <v>1.6555175440000001</v>
-      </c>
-      <c r="F70">
-        <v>0</v>
-      </c>
-      <c r="G70">
-        <v>61.404214600000003</v>
-      </c>
-      <c r="H70">
-        <v>5.3852582399999998</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
@@ -4144,25 +4144,25 @@
         <v>42469</v>
       </c>
       <c r="B71">
+        <v>53.552870800000001</v>
+      </c>
+      <c r="C71">
+        <v>7.1715980000000004</v>
+      </c>
+      <c r="D71">
         <v>11.1328257</v>
       </c>
-      <c r="C71">
-        <v>0</v>
-      </c>
-      <c r="D71">
-        <v>7.1715980000000004</v>
-      </c>
       <c r="E71">
         <v>0</v>
       </c>
       <c r="F71">
-        <v>0</v>
+        <v>17.051422609999999</v>
       </c>
       <c r="G71">
-        <v>53.552870800000001</v>
+        <v>0</v>
       </c>
       <c r="H71">
-        <v>17.051422609999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
@@ -4170,25 +4170,25 @@
         <v>42472</v>
       </c>
       <c r="B72">
+        <v>0</v>
+      </c>
+      <c r="C72">
+        <v>50.286740000000002</v>
+      </c>
+      <c r="D72">
         <v>14.64624774</v>
       </c>
-      <c r="C72">
+      <c r="E72">
         <v>12.3080724</v>
       </c>
-      <c r="D72">
-        <v>50.286740000000002</v>
-      </c>
-      <c r="E72">
-        <v>0</v>
-      </c>
       <c r="F72">
-        <v>0</v>
+        <v>4.7663022499999999</v>
       </c>
       <c r="G72">
         <v>0</v>
       </c>
       <c r="H72">
-        <v>4.7663022499999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
@@ -4196,25 +4196,25 @@
         <v>42484</v>
       </c>
       <c r="B73">
+        <v>0</v>
+      </c>
+      <c r="C73">
+        <v>48.412021000000003</v>
+      </c>
+      <c r="D73">
         <v>8.52101562</v>
       </c>
-      <c r="C73">
+      <c r="E73">
         <v>13.0069134</v>
       </c>
-      <c r="D73">
-        <v>48.412021000000003</v>
-      </c>
-      <c r="E73">
-        <v>0</v>
-      </c>
       <c r="F73">
-        <v>0</v>
+        <v>6.1179232299999997</v>
       </c>
       <c r="G73">
         <v>0</v>
       </c>
       <c r="H73">
-        <v>6.1179232299999997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
@@ -4222,25 +4222,25 @@
         <v>42490</v>
       </c>
       <c r="B74">
+        <v>20.346433040000001</v>
+      </c>
+      <c r="C74">
+        <v>20.389012000000001</v>
+      </c>
+      <c r="D74">
         <v>20.8067706</v>
       </c>
-      <c r="C74">
+      <c r="E74">
         <v>19.50740532</v>
       </c>
-      <c r="D74">
-        <v>20.389012000000001</v>
-      </c>
-      <c r="E74">
-        <v>0</v>
-      </c>
       <c r="F74">
-        <v>0</v>
+        <v>3.2013252830000001</v>
       </c>
       <c r="G74">
-        <v>20.346433040000001</v>
+        <v>0</v>
       </c>
       <c r="H74">
-        <v>3.2013252830000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
@@ -4248,25 +4248,25 @@
         <v>42493</v>
       </c>
       <c r="B75">
+        <v>47.160317999999997</v>
+      </c>
+      <c r="C75">
+        <v>0</v>
+      </c>
+      <c r="D75">
         <v>16.848006000000002</v>
       </c>
-      <c r="C75">
+      <c r="E75">
         <v>11.65073832</v>
       </c>
-      <c r="D75">
-        <v>0</v>
-      </c>
-      <c r="E75">
+      <c r="F75">
+        <v>11.95877553</v>
+      </c>
+      <c r="G75">
+        <v>0</v>
+      </c>
+      <c r="H75">
         <v>0.50041486680000002</v>
-      </c>
-      <c r="F75">
-        <v>0</v>
-      </c>
-      <c r="G75">
-        <v>47.160317999999997</v>
-      </c>
-      <c r="H75">
-        <v>11.95877553</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
@@ -4274,25 +4274,25 @@
         <v>42496</v>
       </c>
       <c r="B76">
+        <v>34.330795479999999</v>
+      </c>
+      <c r="C76">
+        <v>36.527484000000001</v>
+      </c>
+      <c r="D76">
         <v>9.5934702000000005</v>
       </c>
-      <c r="C76">
-        <v>0</v>
-      </c>
-      <c r="D76">
-        <v>36.527484000000001</v>
-      </c>
       <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>17.64725777</v>
+      </c>
+      <c r="G76">
+        <v>0</v>
+      </c>
+      <c r="H76">
         <v>8.0980052799999994E-2</v>
-      </c>
-      <c r="F76">
-        <v>0</v>
-      </c>
-      <c r="G76">
-        <v>34.330795479999999</v>
-      </c>
-      <c r="H76">
-        <v>17.64725777</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
@@ -4300,25 +4300,25 @@
         <v>42499</v>
       </c>
       <c r="B77">
+        <v>43.525968839999997</v>
+      </c>
+      <c r="C77">
+        <v>0.96064919999999998</v>
+      </c>
+      <c r="D77">
         <v>22.621511999999999</v>
       </c>
-      <c r="C77">
+      <c r="E77">
         <v>19.039817159999998</v>
       </c>
-      <c r="D77">
-        <v>0.96064919999999998</v>
-      </c>
-      <c r="E77">
+      <c r="F77">
+        <v>0.67744031900000001</v>
+      </c>
+      <c r="G77">
+        <v>0</v>
+      </c>
+      <c r="H77">
         <v>0.37596681980000002</v>
-      </c>
-      <c r="F77">
-        <v>0</v>
-      </c>
-      <c r="G77">
-        <v>43.525968839999997</v>
-      </c>
-      <c r="H77">
-        <v>0.67744031900000001</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
@@ -4326,25 +4326,25 @@
         <v>42505</v>
       </c>
       <c r="B78">
+        <v>63.490068000000001</v>
+      </c>
+      <c r="C78">
+        <v>47.602652999999997</v>
+      </c>
+      <c r="D78">
         <v>0.209854392</v>
       </c>
-      <c r="C78">
+      <c r="E78">
         <v>4.5301838400000003</v>
       </c>
-      <c r="D78">
-        <v>47.602652999999997</v>
-      </c>
-      <c r="E78">
+      <c r="F78">
+        <v>4.9012369299999996</v>
+      </c>
+      <c r="G78">
+        <v>0</v>
+      </c>
+      <c r="H78">
         <v>0.52950980599999997</v>
-      </c>
-      <c r="F78">
-        <v>0</v>
-      </c>
-      <c r="G78">
-        <v>63.490068000000001</v>
-      </c>
-      <c r="H78">
-        <v>4.9012369299999996</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
@@ -4352,25 +4352,25 @@
         <v>42508</v>
       </c>
       <c r="B79">
+        <v>15.51718164</v>
+      </c>
+      <c r="C79">
+        <v>10.805605999999999</v>
+      </c>
+      <c r="D79">
         <v>12.779530019999999</v>
       </c>
-      <c r="C79">
+      <c r="E79">
         <v>12.212352360000001</v>
       </c>
-      <c r="D79">
-        <v>10.805605999999999</v>
-      </c>
-      <c r="E79">
+      <c r="F79">
+        <v>15.852929749999999</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
         <v>1.340020912</v>
-      </c>
-      <c r="F79">
-        <v>0</v>
-      </c>
-      <c r="G79">
-        <v>15.51718164</v>
-      </c>
-      <c r="H79">
-        <v>15.852929749999999</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
@@ -4378,25 +4378,25 @@
         <v>42511</v>
       </c>
       <c r="B80">
+        <v>18.374670160000001</v>
+      </c>
+      <c r="C80">
+        <v>0</v>
+      </c>
+      <c r="D80">
         <v>19.951819199999999</v>
       </c>
-      <c r="C80">
+      <c r="E80">
         <v>12.496124160000001</v>
       </c>
-      <c r="D80">
-        <v>0</v>
-      </c>
-      <c r="E80">
+      <c r="F80">
+        <v>11.7764621</v>
+      </c>
+      <c r="G80">
+        <v>0</v>
+      </c>
+      <c r="H80">
         <v>1.116447234</v>
-      </c>
-      <c r="F80">
-        <v>0</v>
-      </c>
-      <c r="G80">
-        <v>18.374670160000001</v>
-      </c>
-      <c r="H80">
-        <v>11.7764621</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
@@ -4404,25 +4404,25 @@
         <v>42514</v>
       </c>
       <c r="B81">
+        <v>54.092841200000002</v>
+      </c>
+      <c r="C81">
+        <v>17.524989999999999</v>
+      </c>
+      <c r="D81">
         <v>4.6258924800000001</v>
       </c>
-      <c r="C81">
+      <c r="E81">
         <v>0.5718298248</v>
       </c>
-      <c r="D81">
-        <v>17.524989999999999</v>
-      </c>
-      <c r="E81">
+      <c r="F81">
+        <v>1.4357277369999999</v>
+      </c>
+      <c r="G81">
+        <v>0</v>
+      </c>
+      <c r="H81">
         <v>3.2247321599999998</v>
-      </c>
-      <c r="F81">
-        <v>0</v>
-      </c>
-      <c r="G81">
-        <v>54.092841200000002</v>
-      </c>
-      <c r="H81">
-        <v>1.4357277369999999</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
@@ -4430,25 +4430,25 @@
         <v>42517</v>
       </c>
       <c r="B82">
+        <v>0</v>
+      </c>
+      <c r="C82">
+        <v>59.874220000000001</v>
+      </c>
+      <c r="D82">
         <v>7.4002762200000003</v>
       </c>
-      <c r="C82">
+      <c r="E82">
         <v>7.9628908320000003</v>
       </c>
-      <c r="D82">
-        <v>59.874220000000001</v>
-      </c>
-      <c r="E82">
+      <c r="F82">
+        <v>10.54006624</v>
+      </c>
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82">
         <v>0.46850991460000002</v>
-      </c>
-      <c r="F82">
-        <v>0</v>
-      </c>
-      <c r="G82">
-        <v>0</v>
-      </c>
-      <c r="H82">
-        <v>10.54006624</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
@@ -4456,25 +4456,25 @@
         <v>42520</v>
       </c>
       <c r="B83">
+        <v>43.350042999999999</v>
+      </c>
+      <c r="C83">
+        <v>53.206440000000001</v>
+      </c>
+      <c r="D83">
         <v>2.0106862200000002</v>
       </c>
-      <c r="C83">
+      <c r="E83">
         <v>2.9899382760000002</v>
       </c>
-      <c r="D83">
-        <v>53.206440000000001</v>
-      </c>
-      <c r="E83">
+      <c r="F83">
+        <v>1.28718588</v>
+      </c>
+      <c r="G83">
+        <v>0</v>
+      </c>
+      <c r="H83">
         <v>0.51044047640000001</v>
-      </c>
-      <c r="F83">
-        <v>0</v>
-      </c>
-      <c r="G83">
-        <v>43.350042999999999</v>
-      </c>
-      <c r="H83">
-        <v>1.28718588</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
@@ -4482,25 +4482,25 @@
         <v>42523</v>
       </c>
       <c r="B84">
+        <v>54.162514799999997</v>
+      </c>
+      <c r="C84">
+        <v>26.065452000000001</v>
+      </c>
+      <c r="D84">
         <v>35.397055199999997</v>
       </c>
-      <c r="C84">
+      <c r="E84">
         <v>23.930009999999999</v>
       </c>
-      <c r="D84">
-        <v>26.065452000000001</v>
-      </c>
-      <c r="E84">
+      <c r="F84">
+        <v>9.8634976900000009</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
         <v>2.3899968039999999</v>
-      </c>
-      <c r="F84">
-        <v>0</v>
-      </c>
-      <c r="G84">
-        <v>54.162514799999997</v>
-      </c>
-      <c r="H84">
-        <v>9.8634976900000009</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
@@ -4508,25 +4508,25 @@
         <v>42526</v>
       </c>
       <c r="B85">
+        <v>0</v>
+      </c>
+      <c r="C85">
+        <v>0</v>
+      </c>
+      <c r="D85">
         <v>37.930900800000003</v>
       </c>
-      <c r="C85">
+      <c r="E85">
         <v>40.748783400000001</v>
       </c>
-      <c r="D85">
-        <v>0</v>
-      </c>
-      <c r="E85">
-        <v>0</v>
-      </c>
       <c r="F85">
-        <v>0</v>
+        <v>1.467793675</v>
       </c>
       <c r="G85">
         <v>0</v>
       </c>
       <c r="H85">
-        <v>1.467793675</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
@@ -4534,25 +4534,25 @@
         <v>42529</v>
       </c>
       <c r="B86">
+        <v>41.454050160000001</v>
+      </c>
+      <c r="C86">
+        <v>24.581157999999999</v>
+      </c>
+      <c r="D86">
         <v>7.1832160199999997</v>
       </c>
-      <c r="C86">
+      <c r="E86">
         <v>3.031445196</v>
       </c>
-      <c r="D86">
-        <v>24.581157999999999</v>
-      </c>
-      <c r="E86">
+      <c r="F86">
+        <v>2.3755705250000001</v>
+      </c>
+      <c r="G86">
+        <v>0</v>
+      </c>
+      <c r="H86">
         <v>1.3798778780000001</v>
-      </c>
-      <c r="F86">
-        <v>0</v>
-      </c>
-      <c r="G86">
-        <v>41.454050160000001</v>
-      </c>
-      <c r="H86">
-        <v>2.3755705250000001</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
@@ -4560,25 +4560,25 @@
         <v>42532</v>
       </c>
       <c r="B87">
+        <v>21.567462880000001</v>
+      </c>
+      <c r="C87">
+        <v>12.440638</v>
+      </c>
+      <c r="D87">
         <v>17.549391</v>
       </c>
-      <c r="C87">
+      <c r="E87">
         <v>9.4093646399999997</v>
       </c>
-      <c r="D87">
-        <v>12.440638</v>
-      </c>
-      <c r="E87">
+      <c r="F87">
+        <v>1.592191321</v>
+      </c>
+      <c r="G87">
+        <v>0</v>
+      </c>
+      <c r="H87">
         <v>1.1814974199999999</v>
-      </c>
-      <c r="F87">
-        <v>0</v>
-      </c>
-      <c r="G87">
-        <v>21.567462880000001</v>
-      </c>
-      <c r="H87">
-        <v>1.592191321</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
@@ -4586,25 +4586,25 @@
         <v>42535</v>
       </c>
       <c r="B88">
+        <v>19.901828380000001</v>
+      </c>
+      <c r="C88">
+        <v>18.652809000000001</v>
+      </c>
+      <c r="D88">
         <v>14.817681</v>
       </c>
-      <c r="C88">
+      <c r="E88">
         <v>3.493950876</v>
       </c>
-      <c r="D88">
-        <v>18.652809000000001</v>
-      </c>
-      <c r="E88">
-        <v>0</v>
-      </c>
       <c r="F88">
-        <v>0</v>
+        <v>5.0361716100000002</v>
       </c>
       <c r="G88">
-        <v>19.901828380000001</v>
+        <v>0</v>
       </c>
       <c r="H88">
-        <v>5.0361716100000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
@@ -4612,25 +4612,25 @@
         <v>42538</v>
       </c>
       <c r="B89">
+        <v>0</v>
+      </c>
+      <c r="C89">
+        <v>60.148536</v>
+      </c>
+      <c r="D89">
         <v>30.261440400000001</v>
       </c>
-      <c r="C89">
+      <c r="E89">
         <v>15.7175694</v>
       </c>
-      <c r="D89">
-        <v>60.148536</v>
-      </c>
-      <c r="E89">
+      <c r="F89">
+        <v>5.3700970400000001</v>
+      </c>
+      <c r="G89">
+        <v>0</v>
+      </c>
+      <c r="H89">
         <v>5.3798506359999998E-2</v>
-      </c>
-      <c r="F89">
-        <v>0</v>
-      </c>
-      <c r="G89">
-        <v>0</v>
-      </c>
-      <c r="H89">
-        <v>5.3700970400000001</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
@@ -4638,25 +4638,25 @@
         <v>42541</v>
       </c>
       <c r="B90">
+        <v>58.443086600000001</v>
+      </c>
+      <c r="C90">
+        <v>13.671665000000001</v>
+      </c>
+      <c r="D90">
         <v>7.7651440799999998</v>
       </c>
-      <c r="C90">
+      <c r="E90">
         <v>8.1207018360000003</v>
       </c>
-      <c r="D90">
-        <v>13.671665000000001</v>
-      </c>
-      <c r="E90">
+      <c r="F90">
+        <v>9.6212975200000006</v>
+      </c>
+      <c r="G90">
+        <v>0</v>
+      </c>
+      <c r="H90">
         <v>4.0243908020000001</v>
-      </c>
-      <c r="F90">
-        <v>0</v>
-      </c>
-      <c r="G90">
-        <v>58.443086600000001</v>
-      </c>
-      <c r="H90">
-        <v>9.6212975200000006</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
@@ -4664,25 +4664,25 @@
         <v>42544</v>
       </c>
       <c r="B91">
+        <v>0</v>
+      </c>
+      <c r="C91">
+        <v>55.883737000000004</v>
+      </c>
+      <c r="D91">
         <v>8.7405860400000002</v>
       </c>
-      <c r="C91">
+      <c r="E91">
         <v>11.357648640000001</v>
       </c>
-      <c r="D91">
-        <v>55.883737000000004</v>
-      </c>
-      <c r="E91">
-        <v>0</v>
-      </c>
       <c r="F91">
-        <v>0</v>
+        <v>3.9146218400000001</v>
       </c>
       <c r="G91">
         <v>0</v>
       </c>
       <c r="H91">
-        <v>3.9146218400000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
@@ -4690,25 +4690,25 @@
         <v>42547</v>
       </c>
       <c r="B92">
+        <v>0</v>
+      </c>
+      <c r="C92">
+        <v>69.149360000000001</v>
+      </c>
+      <c r="D92">
         <v>1.9637303399999999</v>
       </c>
-      <c r="C92">
+      <c r="E92">
         <v>9.4102117199999995</v>
       </c>
-      <c r="D92">
-        <v>69.149360000000001</v>
-      </c>
-      <c r="E92">
+      <c r="F92">
+        <v>4.8936563299999998</v>
+      </c>
+      <c r="G92">
+        <v>0</v>
+      </c>
+      <c r="H92">
         <v>0.76445273199999997</v>
-      </c>
-      <c r="F92">
-        <v>0</v>
-      </c>
-      <c r="G92">
-        <v>0</v>
-      </c>
-      <c r="H92">
-        <v>4.8936563299999998</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
@@ -4716,25 +4716,25 @@
         <v>42550</v>
       </c>
       <c r="B93">
+        <v>49.324554200000001</v>
+      </c>
+      <c r="C93">
+        <v>28.427693000000001</v>
+      </c>
+      <c r="D93">
         <v>11.93845866</v>
       </c>
-      <c r="C93">
+      <c r="E93">
         <v>7.071677964</v>
       </c>
-      <c r="D93">
-        <v>28.427693000000001</v>
-      </c>
-      <c r="E93">
+      <c r="F93">
+        <v>5.6395873700000001</v>
+      </c>
+      <c r="G93">
+        <v>0</v>
+      </c>
+      <c r="H93">
         <v>0.72995739999999998</v>
-      </c>
-      <c r="F93">
-        <v>0</v>
-      </c>
-      <c r="G93">
-        <v>49.324554200000001</v>
-      </c>
-      <c r="H93">
-        <v>5.6395873700000001</v>
       </c>
     </row>
   </sheetData>
